--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -447,52 +447,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -511,37 +511,37 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -683,37 +683,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -726,31 +726,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -769,37 +769,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -812,34 +812,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -898,37 +898,37 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -941,37 +941,37 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -987,28 +987,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1030,34 +1030,34 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1073,34 +1073,34 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1159,34 +1159,34 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1199,37 +1199,37 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1242,34 +1242,34 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1340,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1414,37 +1414,37 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1463,31 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1500,37 +1500,37 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1546,34 +1546,34 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1586,37 +1586,37 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1629,37 +1629,37 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1675,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1715,34 +1715,34 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1801,34 +1801,34 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1847,31 +1847,31 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1887,31 +1887,31 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2016,37 +2016,37 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2059,13 +2059,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2086,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2102,34 +2102,34 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2145,37 +2145,37 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2188,25 +2188,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2231,37 +2231,37 @@
         <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2274,31 +2274,31 @@
         <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2323,31 +2323,31 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2363,34 +2363,34 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2403,34 +2403,34 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2449,31 +2449,31 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15</v>
+      </c>
+      <c r="L47" t="n">
         <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2532,37 +2532,37 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7</v>
-      </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
         <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2575,31 +2575,31 @@
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2618,34 +2618,34 @@
         <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2661,34 +2661,34 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -2704,31 +2704,31 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
         <v>3</v>
       </c>
-      <c r="D53" t="n">
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="K53" t="n">
         <v>6</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10</v>
-      </c>
-      <c r="K53" t="n">
-        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2793,34 +2793,34 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
-      <c r="E55" t="n">
+      <c r="I55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2839,31 +2839,31 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2876,37 +2876,37 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2922,34 +2922,34 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2962,10 +2962,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3005,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3091,37 +3091,37 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3134,31 +3134,31 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
         <v>3</v>
       </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
         <v>4</v>
       </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3220,34 +3220,34 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3263,37 +3263,37 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3309,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3321,19 +3321,19 @@
         <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
         <v>5</v>
       </c>
-      <c r="J67" t="n">
-        <v>9</v>
-      </c>
-      <c r="K67" t="n">
-        <v>14</v>
-      </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -3352,34 +3352,34 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3392,37 +3392,37 @@
         <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3435,34 +3435,34 @@
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
         <v>3</v>
       </c>
-      <c r="G70" t="n">
-        <v>8</v>
-      </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3481,34 +3481,34 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3521,34 +3521,34 @@
         <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
         <v>4</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="K72" t="n">
         <v>6</v>
       </c>
-      <c r="H72" t="n">
-        <v>6</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12</v>
-      </c>
-      <c r="K72" t="n">
-        <v>12</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -3564,37 +3564,37 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>3</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3607,37 +3607,37 @@
         <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3653,34 +3653,34 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3693,19 +3693,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3779,34 +3779,34 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -3822,31 +3822,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3880,22 +3880,22 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3911,34 +3911,34 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
         <v>5</v>
       </c>
-      <c r="E81" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3963,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3994,37 +3994,37 @@
         <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4037,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4052,22 +4052,22 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4080,37 +4080,37 @@
         <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4166,37 +4166,37 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4209,31 +4209,31 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
         <v>4</v>
       </c>
-      <c r="H88" t="n">
+      <c r="K88" t="n">
         <v>4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4252,37 +4252,37 @@
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4301,31 +4301,31 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4338,37 +4338,37 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4381,13 +4381,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4424,34 +4424,34 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4467,37 +4467,37 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4553,37 +4553,37 @@
         <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K96" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4596,37 +4596,37 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4639,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4654,22 +4654,22 @@
         <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4694,25 +4694,25 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4725,37 +4725,37 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4774,31 +4774,31 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4811,34 +4811,34 @@
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4900,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -4924,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4940,13 +4940,13 @@
         <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4986,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5026,37 +5026,37 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5069,37 +5069,37 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5112,37 +5112,37 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
         <v>4</v>
       </c>
-      <c r="G109" t="n">
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7</v>
+      </c>
+      <c r="K109" t="n">
         <v>9</v>
       </c>
-      <c r="H109" t="n">
-        <v>9</v>
-      </c>
-      <c r="I109" t="n">
-        <v>18</v>
-      </c>
-      <c r="J109" t="n">
-        <v>18</v>
-      </c>
-      <c r="K109" t="n">
-        <v>18</v>
-      </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -5155,25 +5155,25 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5198,31 +5198,31 @@
         <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -5241,19 +5241,19 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5262,16 +5262,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5327,37 +5327,37 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5373,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -5413,34 +5413,34 @@
         <v>15</v>
       </c>
       <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
         <v>4</v>
       </c>
-      <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -5456,34 +5456,34 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
@@ -5499,37 +5499,37 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J118" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5542,10 +5542,10 @@
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5585,37 +5585,37 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5628,37 +5628,37 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5671,37 +5671,37 @@
         <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J122" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5714,34 +5714,34 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
         <v>5</v>
       </c>
-      <c r="E123" t="n">
-        <v>3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3</v>
-      </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
         <v>6</v>
       </c>
       <c r="K123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -5757,37 +5757,37 @@
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5800,37 +5800,37 @@
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5843,34 +5843,34 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
         <v>4</v>
       </c>
-      <c r="D126" t="n">
-        <v>2</v>
-      </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
@@ -5889,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5904,16 +5904,16 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -5932,34 +5932,34 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5975,34 +5975,34 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6015,34 +6015,34 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K130" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
@@ -6086,65 +6086,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.474434545021718</v>
+        <v>-0.09622891291319545</v>
       </c>
       <c r="B2" t="n">
-        <v>1.847466023853366</v>
+        <v>0.5963225977317697</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1785972712325748</v>
+        <v>-0.5857996873492201</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7141498030515957</v>
+        <v>1.536558570062974</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.598375318932366</v>
+        <v>-1.152589043487992</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.533141859245666</v>
+        <v>0.08716393784448807</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9234213564245989</v>
+        <v>-0.6210801419483368</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.026518579581216</v>
+        <v>0.04770449828693994</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5054721598906392</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5949634979816981</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4446980643628617</v>
+        <v>2.235628913889021</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.09948952906838836</v>
+        <v>-0.3021167057175375</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6152,21 +6152,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.748566522011971</v>
+        <v>-1.199545508780267</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7863091063482572</v>
+        <v>1.468139109370626</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7513121942951165</v>
+        <v>-1.328968508905934</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.447076365858286</v>
+        <v>-0.7708271385414923</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.223049294681293</v>
+        <v>-0.4815785713320541</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8002287448888217</v>
+        <v>-0.814815542925406</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6185,32 +6185,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.028103067505476</v>
+        <v>-0.3164545560721924</v>
       </c>
       <c r="B11" t="n">
-        <v>1.826711530684884</v>
+        <v>-1.604899086222287</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.480489598968948</v>
+        <v>8.618619410196571</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.668562244569853</v>
+        <v>0.3927899533428741</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.271764787545094</v>
+        <v>-0.3621928506798064</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.18719086975588</v>
+        <v>-1.788972240238463</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,65 +6218,65 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.628053954438267</v>
+        <v>-1.508685887413257</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5518085061376374</v>
+        <v>0.7014418049321295</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.600109907618194</v>
+        <v>-0.8229525405120633</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7076947437141601</v>
+        <v>-1.643754483075179</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01001511571706197</v>
+        <v>-1.011028159701252</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.808604440743866</v>
+        <v>1.322409424604092</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4097307431394509</v>
+        <v>0.2977535197734552</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7373464064777165</v>
+        <v>0.0770770155721834</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.185407738760893</v>
+        <v>-1.281907307681702</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3025281917699272</v>
+        <v>0.08139181990808936</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.492835265163859</v>
+        <v>3.197112081787266</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1504843578733817</v>
+        <v>1.145426814448863</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,109 +6284,109 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3555588488399022</v>
+        <v>-0.1292617518326842</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.06196302632885</v>
+        <v>-1.666715772018647</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.3223292114874839</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.473062069004982</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.835589181368491</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.02314689726201166</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.156557067282409</v>
+        <v>8.107705721635503</v>
       </c>
       <c r="B23" t="n">
-        <v>2.692912397112541</v>
+        <v>-1.193619514581072</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.1925703644907988</v>
+        <v>-0.2151094801764941</v>
       </c>
       <c r="B24" t="n">
-        <v>1.051714503783027</v>
+        <v>0.2400953027985924</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.734208112698592</v>
+        <v>1.30362956173408</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6527746247597932</v>
+        <v>-0.870691292821777</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.1700119702112468</v>
+        <v>-0.5671719091680248</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.461825482798327</v>
+        <v>1.609832514043799</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2489612406456501</v>
+        <v>-1.302508167956598</v>
       </c>
       <c r="B27" t="n">
-        <v>1.281230410837092</v>
+        <v>0.3458134152905334</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2.521651890169593</v>
+        <v>-0.1828960327075627</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8338111776475102</v>
+        <v>1.256662679272949</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.825881956798343</v>
+        <v>-1.226005849729603</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7994806636522553</v>
+        <v>0.3514985555385999</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8252900116065516</v>
+        <v>-1.543966342012372</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7751686640337441</v>
+        <v>-0.7874122668439049</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,21 +6405,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.729723020896206</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1122045635701774</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.48559606851774</v>
+        <v>-0.434160233071866</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.40960873164995</v>
+        <v>-0.3296822323018856</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7307092741889953</v>
+        <v>-0.5929837128631675</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5313337671776998</v>
+        <v>0.2394094198186783</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5954780989050241</v>
+        <v>0.1728449309579463</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.497044538518607</v>
+        <v>0.5099634976553242</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.912606087357046</v>
+        <v>-0.08648572842329659</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4305788092517881</v>
+        <v>0.2782648166715698</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.155705462737745</v>
+        <v>-1.508685887413257</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.922438051560473</v>
+        <v>0.7014418049321295</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -6471,32 +6471,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.025720093750442</v>
+        <v>8.222491784443656</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4587579224373184</v>
+        <v>0.2489845035526188</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.722574855767602</v>
+        <v>-1.074637301411447</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05333877030425306</v>
+        <v>1.28780446833502</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.67530427208031</v>
+        <v>-1.388187736869326</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5633517537048189</v>
+        <v>0.3350004049245198</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -6504,43 +6504,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.3791984654551644</v>
+        <v>1.094408605852053</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6693714455614629</v>
+        <v>0.4243826173052275</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.225133586908669</v>
+        <v>-0.2519212869794838</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1130392949917277</v>
+        <v>1.909370993298565</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-2.380475461913858</v>
+        <v>-0.2646261609871152</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.453064924136876</v>
+        <v>-0.9336590166267629</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.283145582660143</v>
+        <v>-1.321597819105706</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.555309466441098</v>
+        <v>-1.593569010839949</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,32 +6548,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.744738974633942</v>
+        <v>-1.281907307681702</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2310011954653137</v>
+        <v>0.08139181990808936</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1181598544409621</v>
+        <v>-0.4728833366923202</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.569125130296325</v>
+        <v>-1.721470414194037</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.090818619068146</v>
+        <v>-1.521916057887925</v>
       </c>
       <c r="B46" t="n">
-        <v>4.481382377546915</v>
+        <v>0.1431215280161167</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1294894402995058</v>
+        <v>2.094714929133587</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2172886575197677</v>
+        <v>-1.039085929466656</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -6592,32 +6592,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.439430185966752</v>
+        <v>-1.012457440472716</v>
       </c>
       <c r="B48" t="n">
-        <v>0.340754780218577</v>
+        <v>-0.8268717064014531</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.134245639646473</v>
+        <v>2.889926280392777</v>
       </c>
       <c r="B49" t="n">
-        <v>0.695483049045138</v>
+        <v>0.2433009080065976</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.401879361339827</v>
+        <v>-0.4003292023223022</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.07107472782812496</v>
+        <v>-0.03578355076831699</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6939625846163896</v>
+        <v>-0.4207619031661168</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2280666744266669</v>
+        <v>-1.688986040569126</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6454941263660176</v>
+        <v>-1.268677137207034</v>
       </c>
       <c r="B52" t="n">
-        <v>1.201118309899017</v>
+        <v>0.6397120968241022</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.589298774887427</v>
+        <v>0.6400082842335688</v>
       </c>
       <c r="B53" t="n">
-        <v>1.532206645954025</v>
+        <v>-0.9937206217098395</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,76 +6658,76 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.816767514501718</v>
+        <v>-1.177599960587777</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08636005007637808</v>
+        <v>0.165478774254928</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.1874779047125004</v>
+        <v>0.3461134337289627</v>
       </c>
       <c r="B55" t="n">
-        <v>2.202472587991316</v>
+        <v>-0.3303279101680049</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4723590546960662</v>
+        <v>0.06055700474288755</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4366935141448926</v>
+        <v>0.3458082778774584</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-2.500128991689099</v>
+        <v>1.256231717732932</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1099911179213594</v>
+        <v>1.560025219148949</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.088744969632228</v>
+        <v>1.799250108757555</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.178814411288321</v>
+        <v>-0.1836981819310977</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.09989879954337999</v>
+        <v>-0.8973750210438236</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9800159025822569</v>
+        <v>-0.7585516771619107</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.201562505100132</v>
+        <v>-0.4917618777546261</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.537529147759677</v>
+        <v>0.05347661622333865</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,32 +6735,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-2.889853512100335</v>
+        <v>-1.4910456601137</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1862933748376552</v>
+        <v>1.445868840820147</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.997654603345994</v>
+        <v>-1.029298419399804</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.820515357580673</v>
+        <v>0.6294979917496702</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.2163985420200358</v>
+        <v>2.133821001898227</v>
       </c>
       <c r="B63" t="n">
-        <v>1.540591495354756</v>
+        <v>1.161327489819029</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.3239867730207857</v>
+        <v>2.388234137747038</v>
       </c>
       <c r="B64" t="n">
-        <v>2.032237827413686</v>
+        <v>-1.13312605582293</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.70577706490935</v>
+        <v>0.4566373985332834</v>
       </c>
       <c r="B65" t="n">
-        <v>2.232511626408086</v>
+        <v>0.767735545567242</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,21 +6790,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.26319478450709</v>
+        <v>-1.495455716938588</v>
       </c>
       <c r="B66" t="n">
-        <v>1.024493290516315</v>
+        <v>1.259762081848142</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.430538372385378</v>
+        <v>-0.0127117851457298</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6215561207840326</v>
+        <v>-0.3531554488486033</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6812,32 +6812,32 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.116831128805513</v>
+        <v>0.5592006451136426</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2776473732640355</v>
+        <v>1.047681609045809</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.622719115477973</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.137787234988315</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.798206240615914</v>
+        <v>0.3983634458915132</v>
       </c>
       <c r="B70" t="n">
-        <v>2.589539983900585</v>
+        <v>-0.007055281301525075</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6845,21 +6845,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.4930157708252463</v>
+        <v>-0.9715286152859628</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8280339876083667</v>
+        <v>-1.671284941958807</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.055427696709888</v>
+        <v>0.1514435655343817</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7011031111661272</v>
+        <v>-0.9269046786453277</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,54 +6867,54 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1161380582776463</v>
+        <v>-0.6112724774169188</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3219918268618929</v>
+        <v>-0.2512350756762437</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.5645231965413505</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.8930464046479105</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-2.839376722361497</v>
+        <v>-0.3387572413006376</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.343732441197776</v>
+        <v>0.06484689671947171</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.320922356025313</v>
+        <v>-1.48222554646392</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9600109256397547</v>
+        <v>1.818082358764155</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.182815029934111</v>
+        <v>-1.293688054306819</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.540265353753828</v>
+        <v>0.7180269332345419</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.296582524732586</v>
+        <v>0.9828970901660939</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.500308338288752</v>
+        <v>-0.002527746522827316</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.544569151427249</v>
+        <v>-0.8357208380188186</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.635609846533633</v>
+        <v>-0.335966277841534</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,98 +6944,98 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.889736665702115</v>
+        <v>-1.022808906326369</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1994451152632664</v>
+        <v>1.959044537930545</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.961142478521625</v>
+        <v>-0.5813694874462437</v>
       </c>
       <c r="B81" t="n">
-        <v>2.952486413097523</v>
+        <v>0.7683395882718989</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.488721617467074</v>
+        <v>-1.321597819105706</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.301613981618065</v>
+        <v>-1.593569010839949</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.131426850009497</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.2037404263985149</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.466745128703829</v>
+        <v>-0.5235996833324023</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.255091907981196</v>
+        <v>-1.532443345436579</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-2.662619766967383</v>
+        <v>-1.230415906554493</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1863736520623376</v>
+        <v>0.1653917965665957</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.1553478603116999</v>
+        <v>-0.08984413577171817</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1807835313185596</v>
+        <v>-0.3073249860630743</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.318844936515511</v>
+        <v>-1.089860697057902</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5284993493428604</v>
+        <v>2.021505471545356</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.936382590233166</v>
+        <v>0.8505759174370308</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8371842449003213</v>
+        <v>-0.2089165116163519</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,54 +7043,54 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.04476077934914959</v>
+        <v>-1.050718671125257</v>
       </c>
       <c r="B89" t="n">
-        <v>1.803426782393767</v>
+        <v>-0.3525514061439465</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.797500758641506</v>
+        <v>-0.9771769858736008</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3416195229193552</v>
+        <v>0.6619823653745812</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5783206621773819</v>
+        <v>1.90853512643726</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1490152767793337</v>
+        <v>-0.2201596093103578</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.729723020896206</v>
+        <v>-1.56160656931193</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1122045635701774</v>
+        <v>-1.531839302731922</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.157989169642243</v>
+        <v>-0.7538209120852966</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.2441128902621866</v>
+        <v>-0.8153274705286555</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -7098,98 +7098,98 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.02063933769927347</v>
+        <v>0.6597094629264719</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6572705464417268</v>
+        <v>1.096413138746547</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2.816767514501718</v>
+        <v>-1.281907307681702</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08636005007637808</v>
+        <v>0.08139181990808936</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.814925461740826</v>
+        <v>3.285415289717466</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.371034803957117</v>
+        <v>-0.4398488993926024</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.003259160478268668</v>
+        <v>0.3519951188849049</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9012583085362177</v>
+        <v>-0.1396128322841053</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4201760769426225</v>
+        <v>-0.1009948499978409</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4281006127316162</v>
+        <v>0.2777945242297828</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.1087886422143892</v>
+        <v>-0.9639468153989323</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.171702000559473</v>
+        <v>1.220302642290594</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.563005645266531</v>
+        <v>7.471464861659588</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.09989786150090819</v>
+        <v>0.3975614042284156</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.293142995206188</v>
+        <v>-1.152589043487992</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.6620009410195616</v>
+        <v>0.08716393784448816</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.348221491083838</v>
+        <v>0.7205446359476083</v>
       </c>
       <c r="B102" t="n">
-        <v>2.060683865985386</v>
+        <v>0.01997570374332749</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,87 +7197,87 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.737631190962545</v>
+        <v>-0.9595367585740432</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02089568596782667</v>
+        <v>1.406409401262598</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.4988441205651065</v>
+        <v>-0.1565404276901836</v>
       </c>
       <c r="B104" t="n">
-        <v>2.209001201688562</v>
+        <v>0.1401091031292554</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.405669030303256</v>
+        <v>-1.521916057887925</v>
       </c>
       <c r="B105" t="n">
-        <v>0.868443301994315</v>
+        <v>0.1431215280161167</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.100232341128391</v>
+        <v>0.0336146477475507</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9496232209742826</v>
+        <v>-1.682615017341145</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.6215314846979882</v>
+        <v>0.190148164299636</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3302106797862907</v>
+        <v>0.6671504406063232</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2876168650304971</v>
+        <v>-1.242216796257697</v>
       </c>
       <c r="B108" t="n">
-        <v>0.516859619956662</v>
+        <v>1.756352650656128</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.543775412742878</v>
+        <v>1.529063453548041</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.543888534225494</v>
+        <v>-0.4525025381125636</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8788309055701443</v>
+        <v>-0.3071725694545006</v>
       </c>
       <c r="B110" t="n">
-        <v>2.217317654423522</v>
+        <v>0.6334229138713788</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.896884830830719</v>
+        <v>3.122203957582776</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3649884491376968</v>
+        <v>-1.247211077574613</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -7296,43 +7296,43 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.489319636342538</v>
+        <v>-1.199545508780267</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8485966220382295</v>
+        <v>1.468139109370626</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.524856937284654</v>
+        <v>-1.219178961251612</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09961076843455022</v>
+        <v>2.015733353608957</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.645278437503715</v>
+        <v>-1.508685887413257</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1762218340495265</v>
+        <v>0.7014418049321295</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.549360071916776</v>
+        <v>-1.041898557475478</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.466364782901167</v>
+        <v>0.019662111800062</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9482508456352228</v>
+        <v>0.5577528594869794</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2724494883297975</v>
+        <v>-0.8993325846002369</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.64494073990343</v>
+        <v>3.008219090817096</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.06985644335771153</v>
+        <v>1.860509084400958</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -7362,65 +7362,65 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.667952989355673</v>
+        <v>2.486218744890901</v>
       </c>
       <c r="B118" t="n">
-        <v>1.247097937739002</v>
+        <v>0.3622998610307961</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.121999838227896</v>
+        <v>-0.9125802932817685</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.7847808681497244</v>
+        <v>0.0254342297364608</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.9344209085963566</v>
+        <v>-1.037488500650589</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.05676134060118376</v>
+        <v>0.2057688707720663</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3796062602479595</v>
+        <v>-1.268677137207034</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.266735684896262</v>
+        <v>0.6397120968241022</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.181167047856598</v>
+        <v>3.52954269653034</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8957185828879641</v>
+        <v>-0.4287749559615919</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.148113088761854</v>
+        <v>-0.126005767097626</v>
       </c>
       <c r="B123" t="n">
-        <v>3.472141939199656</v>
+        <v>0.3561093606402226</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,32 +7428,32 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.822035392897828</v>
+        <v>-1.508685887413257</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.3538842592105874</v>
+        <v>0.7014418049321295</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-2.729723020896206</v>
+        <v>-0.9200372141587542</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1122045635701774</v>
+        <v>-1.587284965300301</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.5119084586888</v>
+        <v>1.804354296576268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5782084812200312</v>
+        <v>0.2225630221518631</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5502115650766451</v>
+        <v>-0.2340927571707573</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.126276562758989</v>
+        <v>-0.218151796759751</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,32 +7472,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.5496940363611388</v>
+        <v>-1.543966342012372</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6247600826633101</v>
+        <v>-0.7874122668439049</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.578819161838614</v>
+        <v>0.009065603615678604</v>
       </c>
       <c r="B129" t="n">
-        <v>1.196535159119388</v>
+        <v>0.2618083012189521</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.1078461322750098</v>
+        <v>1.782302374228932</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5152080145008907</v>
+        <v>0.04408803069542178</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>

--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2476,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.09622891291319545</v>
+        <v>0.4342251891597899</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5963225977317697</v>
+        <v>1.057454977750404</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5857996873492201</v>
+        <v>-0.6866144277285526</v>
       </c>
       <c r="B3" t="n">
-        <v>1.536558570062974</v>
+        <v>-0.2891939908602992</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.152589043487992</v>
+        <v>-0.8711695092235004</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08716393784448807</v>
+        <v>-0.2141677254216937</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6210801419483368</v>
+        <v>-0.6866144277285526</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04770449828693994</v>
+        <v>-0.2891939908602992</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6141,21 +6141,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.235628913889021</v>
+        <v>1.38296163852733</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3021167057175375</v>
+        <v>-0.4607699717020952</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.199545508780267</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B8" t="n">
-        <v>1.468139109370626</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.328968508905934</v>
+        <v>-0.9435930716725263</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7708271385414923</v>
+        <v>-0.1075955230627239</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4815785713320541</v>
+        <v>-0.0339170785369075</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.814815542925406</v>
+        <v>0.3466173607257498</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3164545560721924</v>
+        <v>-0.4296357837845792</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.604899086222287</v>
+        <v>-0.4707924586578745</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.618619410196571</v>
+        <v>6.878545266057576</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3927899533428741</v>
+        <v>-3.413447647549311</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3621928506798064</v>
+        <v>-0.4030272415268031</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.788972240238463</v>
+        <v>0.4966698916029609</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.508685887413257</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7014418049321295</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.8229525405120633</v>
+        <v>-0.7064684060270009</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.643754483075179</v>
+        <v>-0.3582530604999662</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.011028159701252</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B16" t="n">
-        <v>1.322409424604092</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2977535197734552</v>
+        <v>0.624887334249091</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0770770155721834</v>
+        <v>-0.2297239795873402</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.281907307681702</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08139181990808936</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.197112081787266</v>
+        <v>2.648648380313725</v>
       </c>
       <c r="B19" t="n">
-        <v>1.145426814448863</v>
+        <v>0.6727345921906689</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1292617518326842</v>
+        <v>-0.5020593462336049</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.666715772018647</v>
+        <v>-0.3642202562989048</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.107705721635503</v>
+        <v>6.266850874192776</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.193619514581072</v>
+        <v>0.3099710851845893</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.2151094801764941</v>
+        <v>-0.0339170785369075</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2400953027985924</v>
+        <v>0.3466173607257498</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.30362956173408</v>
+        <v>1.225015099290159</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.870691292821777</v>
+        <v>0.5817186439973456</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5671719091680248</v>
+        <v>-0.3572122213355534</v>
       </c>
       <c r="B26" t="n">
-        <v>1.609832514043799</v>
+        <v>-0.5773646610168444</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.302508167956598</v>
+        <v>-0.9435930716725263</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3458134152905334</v>
+        <v>-0.1075955230627239</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.1828960327075627</v>
+        <v>0.1772465452158164</v>
       </c>
       <c r="B28" t="n">
-        <v>1.256662679272949</v>
+        <v>1.23905344554798</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.226005849729603</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3514985555385999</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.543966342012372</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7874122668439049</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.434160233071866</v>
+        <v>-0.290895722480881</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.3296822323018856</v>
+        <v>0.5282158285233252</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.5929837128631675</v>
+        <v>-0.6667604494301046</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2394094198186783</v>
+        <v>-0.2201349212206322</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1728449309579463</v>
+        <v>-0.6667604494301046</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5099634976553242</v>
+        <v>-0.2201349212206322</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.08648572842329659</v>
+        <v>-0.3899278271876829</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2782648166715698</v>
+        <v>-0.3326743193785404</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.508685887413257</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7014418049321295</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.222491784443656</v>
+        <v>7.248302929412445</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2489845035526188</v>
+        <v>-1.452944205906214</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.074637301411447</v>
+        <v>-0.6866144277285526</v>
       </c>
       <c r="B38" t="n">
-        <v>1.28780446833502</v>
+        <v>-0.2891939908602992</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.388187736869326</v>
+        <v>-0.8711695092235004</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3350004049245198</v>
+        <v>-0.2141677254216937</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.094408605852053</v>
+        <v>0.8751114142337367</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4243826173052275</v>
+        <v>-1.309725728006084</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.2519212869794838</v>
+        <v>-0.1261946192843814</v>
       </c>
       <c r="B41" t="n">
-        <v>1.909370993298565</v>
+        <v>0.3841304934450526</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.2646261609871152</v>
+        <v>-0.6866144277285526</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9336590166267629</v>
+        <v>-0.2891939908602992</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.321597819105706</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.593569010839949</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.281907307681702</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08139181990808936</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.4728833366923202</v>
+        <v>-0.2383261383303034</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.721470414194037</v>
+        <v>0.3525845565246883</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.521916057887925</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1431215280161167</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,21 +6581,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.094714929133587</v>
+        <v>1.284577034185503</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.039085929466656</v>
+        <v>0.7888958529163469</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.012457440472716</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8268717064014531</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -6603,21 +6603,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.889926280392777</v>
+        <v>1.719118408879658</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2433009080065976</v>
+        <v>0.1494626387625279</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.4003292023223022</v>
+        <v>-0.3831732632283549</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.03578355076831699</v>
+        <v>0.5657289612426279</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.4207619031661168</v>
+        <v>-0.6866144277285526</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.688986040569126</v>
+        <v>-0.2891939908602992</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.268677137207034</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6397120968241022</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6400082842335688</v>
+        <v>0.6187802706547376</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.9937206217098395</v>
+        <v>0.9824287123117988</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.177599960587777</v>
+        <v>-0.7788919684760266</v>
       </c>
       <c r="B54" t="n">
-        <v>0.165478774254928</v>
+        <v>-0.2516808581409965</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3461134337289627</v>
+        <v>-0.1329491832437094</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.3303279101680049</v>
+        <v>-0.5142727871761157</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.06055700474288755</v>
+        <v>0.07821444050901454</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3458082778774584</v>
+        <v>0.3781632976461142</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.256231717732932</v>
+        <v>1.106129016284909</v>
       </c>
       <c r="B57" t="n">
-        <v>1.560025219148949</v>
+        <v>-0.348230573544187</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -6702,21 +6702,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.799250108757555</v>
+        <v>1.620086304172856</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1836981819310977</v>
+        <v>-0.7114275091393376</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8973750210438236</v>
+        <v>-0.2123650964375019</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.7585516771619107</v>
+        <v>-0.7905090657347839</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4917618777546261</v>
+        <v>-0.5219133245320531</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05347661622333865</v>
+        <v>-0.4332793259385718</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.4910456601137</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B61" t="n">
-        <v>1.445868840820147</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.029298419399804</v>
+        <v>-0.4030272415268031</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6294979917496702</v>
+        <v>0.4966698916029609</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -6757,32 +6757,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.133821001898227</v>
+        <v>1.62073380453783</v>
       </c>
       <c r="B63" t="n">
-        <v>1.161327489819029</v>
+        <v>1.39912846338097</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.388234137747038</v>
+        <v>1.877712448481804</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.13312605582293</v>
+        <v>1.217529995583395</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4566373985332834</v>
+        <v>0.05160589825123844</v>
       </c>
       <c r="B65" t="n">
-        <v>0.767735545567242</v>
+        <v>-0.5892990526147213</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.495455716938588</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B66" t="n">
-        <v>1.259762081848142</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.0127117851457298</v>
+        <v>-0.5744829086826307</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.3531554488486033</v>
+        <v>-0.2576480539399349</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5592006451136426</v>
+        <v>0.454079167458238</v>
       </c>
       <c r="B68" t="n">
-        <v>1.047681609045809</v>
+        <v>1.126514047390072</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3983634458915132</v>
+        <v>0.5989262923562895</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.007055281301525075</v>
+        <v>0.9133696426721319</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.9715286152859628</v>
+        <v>-0.5677283447233027</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.671284941958807</v>
+        <v>0.6407552266812334</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1514435655343817</v>
+        <v>0.1506380029580403</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9269046786453277</v>
+        <v>0.2715910952871444</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.6112724774169188</v>
+        <v>-0.3572122213355534</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.2512350756762437</v>
+        <v>-0.5773646610168444</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3387572413006376</v>
+        <v>-0.3373582430371053</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06484689671947171</v>
+        <v>-0.5083055913771772</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.48222554646392</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B76" t="n">
-        <v>1.818082358764155</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.293688054306819</v>
+        <v>-0.9435930716725263</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7180269332345419</v>
+        <v>-0.1075955230627239</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9828970901660939</v>
+        <v>0.3611541263457895</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.002527746522827316</v>
+        <v>-0.9465287924109334</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.8357208380188186</v>
+        <v>-0.9435930716725263</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.335966277841534</v>
+        <v>-0.1075955230627239</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.022808906326369</v>
+        <v>-0.9435930716725263</v>
       </c>
       <c r="B80" t="n">
-        <v>1.959044537930545</v>
+        <v>-0.1075955230627239</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5813694874462437</v>
+        <v>-0.409781805486131</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7683395882718989</v>
+        <v>-0.4017333890182075</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.321597819105706</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.593569010839949</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.5235996833324023</v>
+        <v>-0.5744829086826307</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.532443345436579</v>
+        <v>-0.2576480539399349</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.230415906554493</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1653917965665957</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.08984413577171817</v>
+        <v>-0.0339170785369075</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.3073249860630743</v>
+        <v>0.3466173607257498</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.089860697057902</v>
+        <v>-0.5417673028305011</v>
       </c>
       <c r="B87" t="n">
-        <v>2.021505471545356</v>
+        <v>-0.5023383955782389</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8505759174370308</v>
+        <v>0.4342251891597899</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.2089165116163519</v>
+        <v>1.057454977750404</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1.050718671125257</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3525514061439465</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.9771769858736008</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6619823653745812</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -7065,21 +7065,21 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.90853512643726</v>
+        <v>1.112883580244237</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.2201596093103578</v>
+        <v>0.5501727070769813</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.56160656931193</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.531839302731922</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.7538209120852966</v>
+        <v>-0.5219133245320531</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.8153274705286555</v>
+        <v>-0.4332793259385718</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6597094629264719</v>
+        <v>-0.2450807022896314</v>
       </c>
       <c r="B94" t="n">
-        <v>1.096413138746547</v>
+        <v>-0.54581872409648</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.281907307681702</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08139181990808936</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.285415289717466</v>
+        <v>2.925481002556146</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4398488993926024</v>
+        <v>0.5601951940327606</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3519951188849049</v>
+        <v>1.258378205507263</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1396128322841053</v>
+        <v>2.447584274879349</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.1009948499978409</v>
+        <v>-0.5744829086826307</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2777945242297828</v>
+        <v>-0.2576480539399349</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.9639468153989323</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B99" t="n">
-        <v>1.220302642290594</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.471464861659588</v>
+        <v>5.990256038735794</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3975614042284156</v>
+        <v>-0.09308431636103266</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.152589043487992</v>
+        <v>-0.8711695092235004</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08716393784448816</v>
+        <v>-0.2141677254216937</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7205446359476083</v>
+        <v>-0.5744829086826307</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01997570374332749</v>
+        <v>-0.2576480539399349</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.9595367585740432</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B103" t="n">
-        <v>1.406409401262598</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.1565404276901836</v>
+        <v>0.2496701076648421</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1401091031292554</v>
+        <v>1.13248124318901</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.521916057887925</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1431215280161167</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0336146477475507</v>
+        <v>0.03850648391211824</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.682615017341145</v>
+        <v>0.2400451583667801</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.190148164299636</v>
+        <v>-0.2252267239911833</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6671504406063232</v>
+        <v>-0.476759654456813</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.242216796257697</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B108" t="n">
-        <v>1.756352650656128</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -7263,21 +7263,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.529063453548041</v>
+        <v>1.060313996093659</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4525025381125636</v>
+        <v>0.7258039790756181</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.3071725694545006</v>
+        <v>-0.6667604494301046</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6334229138713788</v>
+        <v>-0.2201349212206322</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.122203957582776</v>
+        <v>3.848666123610421</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.247211077574613</v>
+        <v>2.811214639063571</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.199545508780267</v>
+        <v>-0.8513155309250523</v>
       </c>
       <c r="B112" t="n">
-        <v>1.468139109370626</v>
+        <v>-0.1451086557820267</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.219178961251612</v>
+        <v>-0.7064684060270009</v>
       </c>
       <c r="B113" t="n">
-        <v>2.015733353608957</v>
+        <v>-0.3582530604999662</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.508685887413257</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7014418049321295</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.041898557475478</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B115" t="n">
-        <v>0.019662111800062</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.5577528594869794</v>
+        <v>0.3153391061545399</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8993325846002369</v>
+        <v>0.1275057602088719</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.008219090817096</v>
+        <v>2.674609422206526</v>
       </c>
       <c r="B117" t="n">
-        <v>1.860509084400958</v>
+        <v>-0.4703590300688035</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -7362,21 +7362,21 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.486218744890901</v>
+        <v>1.607224676619174</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3622998610307961</v>
+        <v>-0.3976780978613667</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.9125802932817685</v>
+        <v>-0.8711695092235004</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0254342297364608</v>
+        <v>-0.2141677254216937</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.037488500650589</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2057688707720663</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -7395,10 +7395,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.268677137207034</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6397120968241022</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.52954269653034</v>
+        <v>3.070328127454198</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.4287749559615919</v>
+        <v>0.3470507893148211</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.126005767097626</v>
+        <v>-0.4822053679351568</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3561093606402226</v>
+        <v>-0.2951611866592377</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.508685887413257</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7014418049321295</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.9200372141587542</v>
+        <v>-0.3831732632283549</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.587284965300301</v>
+        <v>0.5657289612426279</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -7450,21 +7450,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.804354296576268</v>
+        <v>1.013851475537435</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2225630221518631</v>
+        <v>-0.3107174408248842</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.2340927571707573</v>
+        <v>-0.2450807022896314</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.218151796759751</v>
+        <v>-0.54581872409648</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.543966342012372</v>
+        <v>-1.03587061242</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.7874122668439049</v>
+        <v>-0.07008239034342116</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.009065603615678604</v>
+        <v>-0.1063406409859332</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2618083012189521</v>
+        <v>0.4531895630847197</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -7494,13 +7494,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.782302374228932</v>
+        <v>1.060313996093659</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04408803069542178</v>
+        <v>0.7258039790756181</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2476,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -6086,10 +6086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4342251891597899</v>
+        <v>-0.2053286583931037</v>
       </c>
       <c r="B2" t="n">
-        <v>1.057454977750404</v>
+        <v>0.7450470794866288</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6866144277285526</v>
+        <v>-0.9564301152049972</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2891939908602992</v>
+        <v>0.3484670630873642</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8711695092235004</v>
+        <v>-1.635589199946947</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2141677254216937</v>
+        <v>-0.04169888982973947</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6866144277285526</v>
+        <v>-0.9872966039119747</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2891939908602992</v>
+        <v>-0.2183404201960304</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6141,21 +6141,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.38296163852733</v>
+        <v>3.587797439708935</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4607699717020952</v>
+        <v>-1.660420022323002</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-0.851070245875261</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1451086557820267</v>
+        <v>3.080340495272236</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9435930716725263</v>
+        <v>-1.562507155244988</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1075955230627239</v>
+        <v>0.5994263050580602</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0339170785369075</v>
+        <v>-0.4808264718034476</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3466173607257498</v>
+        <v>0.4137982976458458</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4296357837845792</v>
+        <v>-0.4683873938442899</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4707924586578745</v>
+        <v>-0.08085885954583402</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.878545266057576</v>
+        <v>12.11564150501157</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.413447647549311</v>
+        <v>5.893858568866931</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4030272415268031</v>
+        <v>-1.099614877483906</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4966698916029609</v>
+        <v>-1.303545543384357</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.881610588311543</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.3288361831495524</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.7064684060270009</v>
+        <v>-1.35778933195831</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3582530604999662</v>
+        <v>-0.7352700950512924</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.54010954640303</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.2236103913730628</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.624887334249091</v>
+        <v>-0.0421907893198591</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2297239795873402</v>
+        <v>-0.09658111874244707</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.730151622799147</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.07803138979081414</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.648648380313725</v>
+        <v>4.278489035900095</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6727345921906689</v>
+        <v>-1.279895059825033</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.5020593462336049</v>
+        <v>-0.1280613041206108</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3642202562989048</v>
+        <v>-1.178785880763921</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.266850874192776</v>
+        <v>10.1796780060014</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3099710851845893</v>
+        <v>-2.008137895763652</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.0339170785369075</v>
+        <v>-0.07643937602109807</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3466173607257498</v>
+        <v>0.4474088917813753</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.225015099290159</v>
+        <v>1.830821996712642</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5817186439973456</v>
+        <v>-0.3534427274368674</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.3572122213355534</v>
+        <v>-0.8479466490466978</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.5773646610168444</v>
+        <v>0.768551050049035</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9435930716725263</v>
+        <v>-1.552195086622038</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1075955230627239</v>
+        <v>0.1102924651360249</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1772465452158164</v>
+        <v>-0.4880932701855341</v>
       </c>
       <c r="B28" t="n">
-        <v>1.23905344554798</v>
+        <v>-0.1900528546654486</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.063925719611637</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.8232766236292032</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.790537613873935</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.5776780264417776</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.290895722480881</v>
+        <v>-0.3178655076223431</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5282158285233252</v>
+        <v>1.018247954438128</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.6667604494301046</v>
+        <v>-0.4546891943821484</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2201349212206322</v>
+        <v>1.452928703490771</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6667604494301046</v>
+        <v>-0.2427252292472873</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2201349212206322</v>
+        <v>-0.4948009219489632</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.3899278271876829</v>
+        <v>0.2585999615042585</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3326743193785404</v>
+        <v>1.492350218449856</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.881610588311543</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.3288361831495524</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.248302929412445</v>
+        <v>10.38200844259615</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.452944205906214</v>
+        <v>0.2041057831057748</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.6866144277285526</v>
+        <v>-0.8281322781729904</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2891939908602992</v>
+        <v>2.02951312721802</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.8711695092235004</v>
+        <v>-1.428946398202331</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.2141677254216937</v>
+        <v>2.670414792016639</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8751114142337367</v>
+        <v>1.610912076840921</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.309725728006084</v>
+        <v>-0.0783141612745597</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.1261946192843814</v>
+        <v>-0.5299839432361496</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3841304934450526</v>
+        <v>0.3720831519820158</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.6866144277285526</v>
+        <v>-0.8727520405758906</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2891939908602992</v>
+        <v>-0.7410865430674832</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.764876422594497</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.7156898084846334</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.730151622799147</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.07803138979081414</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.2383261383303034</v>
+        <v>-1.168086353409218</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3525845565246883</v>
+        <v>-1.072898276714189</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.649306595287489</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07008239034342116</v>
+        <v>1.747582030069519</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,21 +6581,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.284577034185503</v>
+        <v>3.690002856358182</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7888958529163469</v>
+        <v>0.541112725630512</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.264184480983548</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1451086557820267</v>
+        <v>-0.4146128305001332</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -6603,21 +6603,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.719118408879658</v>
+        <v>3.059788622295167</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1494626387625279</v>
+        <v>0.03266858571341866</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.3831732632283549</v>
+        <v>-0.7281260368235063</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5657289612426279</v>
+        <v>-0.5888217474086783</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.6866144277285526</v>
+        <v>-0.7044556902536563</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2891939908602992</v>
+        <v>-1.256451563245414</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.718576689534031</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.1345214164404589</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6187802706547376</v>
+        <v>0.5309677643375673</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9824287123117988</v>
+        <v>-0.3942102449139969</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.7788919684760266</v>
+        <v>-1.570592640095512</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2516808581409965</v>
+        <v>0.1743641554956367</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.1329491832437094</v>
+        <v>0.8270342915605092</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5142727871761157</v>
+        <v>-0.925834465247097</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.07821444050901454</v>
+        <v>0.177282497200279</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3781632976461142</v>
+        <v>0.7602684141586555</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.106129016284909</v>
+        <v>1.920757669791527</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.348230573544187</v>
+        <v>0.03073298803977459</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -6702,21 +6702,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.620086304172856</v>
+        <v>2.974529577431821</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.7114275091393376</v>
+        <v>0.01942245504706466</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.2123650964375019</v>
+        <v>-1.235332980381523</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.7905090657347839</v>
+        <v>0.9124447465775788</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5219133245320531</v>
+        <v>-0.5269157916260181</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4332793259385718</v>
+        <v>2.264940059491904</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.866177343958054</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.6122399247912497</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.4030272415268031</v>
+        <v>-1.310620685302843</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4966698916029609</v>
+        <v>1.149398268684206</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -6757,32 +6757,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.62073380453783</v>
+        <v>2.815852200375134</v>
       </c>
       <c r="B63" t="n">
-        <v>1.39912846338097</v>
+        <v>-1.279246983609633</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.877712448481804</v>
+        <v>2.642265405850948</v>
       </c>
       <c r="B64" t="n">
-        <v>1.217529995583395</v>
+        <v>-1.876256887523921</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05160589825123844</v>
+        <v>1.200469540913061</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.5892990526147213</v>
+        <v>-0.2912934198525083</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.870035655046427</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.5413889893808254</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.5744829086826307</v>
+        <v>0.09581103507531169</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2576480539399349</v>
+        <v>-0.9635439580209038</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.454079167458238</v>
+        <v>0.6467383872394529</v>
       </c>
       <c r="B68" t="n">
-        <v>1.126514047390072</v>
+        <v>-0.4114837494019578</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5989262923562895</v>
+        <v>0.1205966152092273</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9133696426721319</v>
+        <v>0.3017452015881379</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.5677283447233027</v>
+        <v>-1.52024509789113</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6407552266812334</v>
+        <v>-0.951248509927245</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1506380029580403</v>
+        <v>0.3155342196337678</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2715910952871444</v>
+        <v>-0.1844748643611479</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.3572122213355534</v>
+        <v>-0.9689222791618306</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.5773646610168444</v>
+        <v>-0.09306252438563606</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3373582430371053</v>
+        <v>-0.2851204217918982</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5083055913771772</v>
+        <v>-0.1364778482730494</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.85846072178131</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.7539417956120983</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.9435930716725263</v>
+        <v>-1.608149980243742</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1075955230627239</v>
+        <v>0.2430366299283257</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3611541263457895</v>
+        <v>1.118197096751036</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9465287924109334</v>
+        <v>-0.5702001294139096</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.9435930716725263</v>
+        <v>-1.346803887569433</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1075955230627239</v>
+        <v>-0.3922997487044737</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.9435930716725263</v>
+        <v>-1.463538053286479</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1075955230627239</v>
+        <v>0.6522262429297118</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.409781805486131</v>
+        <v>-0.2355197207890022</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.4017333890182075</v>
+        <v>1.954971961754793</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.764876422594497</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.7156898084846334</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.5744829086826307</v>
+        <v>-0.5663285694506298</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2576480539399349</v>
+        <v>-0.6585950571827457</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.407926824319199</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.133956613261082</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.0339170785369075</v>
+        <v>-0.1937214029915132</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3466173607257498</v>
+        <v>-0.6625177519732642</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.5417673028305011</v>
+        <v>-1.5434509690592</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5023383955782389</v>
+        <v>0.9848249710158897</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4342251891597899</v>
+        <v>0.5314958707818469</v>
       </c>
       <c r="B88" t="n">
-        <v>1.057454977750404</v>
+        <v>-1.257594371774561</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.57483434619838</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.4140480273207563</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.111378529131985</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.9678439793588813</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.112883580244237</v>
+        <v>1.306934923776956</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5501727070769813</v>
+        <v>-1.317330493424961</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.927910321372009</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.5213750417755396</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.5219133245320531</v>
+        <v>-0.9531201721345618</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.4332793259385718</v>
+        <v>0.4737014959976361</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.2450807022896314</v>
+        <v>0.2625143220569079</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.54581872409648</v>
+        <v>0.7353623212338709</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.730151622799147</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.07803138979081414</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.925481002556146</v>
+        <v>4.660729217883526</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5601951940327606</v>
+        <v>-1.747073138217407</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.258378205507263</v>
+        <v>-0.4975049184298463</v>
       </c>
       <c r="B97" t="n">
-        <v>2.447584274879349</v>
+        <v>-0.7315381503137354</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.5744829086826307</v>
+        <v>-0.2719698766443776</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2576480539399349</v>
+        <v>0.6970721776777868</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.221743059011454</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.3647474590145343</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.990256038735794</v>
+        <v>11.81798845767145</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.09308431636103266</v>
+        <v>1.630441060253126</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.8711695092235004</v>
+        <v>-1.635589199946947</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2141677254216937</v>
+        <v>-0.04169888982973947</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.5744829086826307</v>
+        <v>0.6419178141118181</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.2576480539399349</v>
+        <v>-1.44148328375442</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.217884747923082</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.4355983944249587</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.2496701076648421</v>
+        <v>-0.6572095421943817</v>
       </c>
       <c r="B104" t="n">
-        <v>1.13248124318901</v>
+        <v>-0.4242921209617359</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.89318552157666</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.1162833769182794</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.03850648391211824</v>
+        <v>-0.4547971975228111</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2400451583667801</v>
+        <v>-1.033476761755104</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.2252267239911833</v>
+        <v>0.2228261824970088</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.476759654456813</v>
+        <v>0.05130713733713032</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.695426823003798</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.5596270289030048</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.060313996093659</v>
+        <v>2.112322891397693</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7258039790756181</v>
+        <v>-0.6571460732305332</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.6667604494301046</v>
+        <v>-0.6142231762411652</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2201349212206322</v>
+        <v>0.001376443306733083</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.848666123610421</v>
+        <v>3.058001980213713</v>
       </c>
       <c r="B111" t="n">
-        <v>2.811214639063571</v>
+        <v>-2.315954014194257</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.8513155309250523</v>
+        <v>-1.380918646700594</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1451086557820267</v>
+        <v>0.6299131611340523</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.7064684060270009</v>
+        <v>-1.665477564988537</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3582530604999662</v>
+        <v>0.8974577309446724</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.881610588311543</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.3288361831495524</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.44517826087705</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.5433031700757122</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3153391061545399</v>
+        <v>0.5503964805378261</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1275057602088719</v>
+        <v>-0.101140136225172</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.674609422206526</v>
+        <v>3.725542350903432</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.4703590300688035</v>
+        <v>0.3545817563161839</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -7362,21 +7362,21 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.607224676619174</v>
+        <v>4.424390436975791</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3976780978613667</v>
+        <v>-1.195786521752554</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.8711695092235004</v>
+        <v>-1.472555301169435</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2141677254216937</v>
+        <v>-0.2360136565388329</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.563259412933263</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.2014952210894833</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -7395,10 +7395,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.718576689534031</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.1345214164404589</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.070328127454198</v>
+        <v>4.58673694361798</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3470507893148211</v>
+        <v>-2.042151145760149</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.4822053679351568</v>
+        <v>-0.2198111147002261</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2951611866592377</v>
+        <v>-0.001104229381418414</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.881610588311543</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.07008239034342116</v>
+        <v>0.3288361831495524</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.3831732632283549</v>
+        <v>-1.198020299411182</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5657289612426279</v>
+        <v>-0.7392605068753488</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -7450,21 +7450,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.013851475537435</v>
+        <v>2.226922053308803</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.3107174408248842</v>
+        <v>-1.054072158623178</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.2450807022896314</v>
+        <v>0.02253959902313649</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.54581872409648</v>
+        <v>-0.4932917186520194</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.03587061242</v>
+        <v>-1.91247707701852</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.07008239034342116</v>
+        <v>-0.2379713001338423</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.1063406409859332</v>
+        <v>-0.02300283813508375</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4531895630847197</v>
+        <v>1.36392973768238</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.060313996093659</v>
+        <v>1.957074055527201</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7258039790756181</v>
+        <v>-1.384442148923435</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>

--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -447,52 +447,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -511,37 +511,37 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -683,37 +683,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -726,31 +726,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -769,37 +769,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -812,34 +812,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -898,37 +898,37 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -941,37 +941,37 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>91</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19</v>
-      </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -987,28 +987,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1030,34 +1030,34 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1073,34 +1073,34 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1159,34 +1159,34 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1199,37 +1199,37 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1242,34 +1242,34 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1340,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1414,37 +1414,37 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="n">
-        <v>16</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1463,31 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1500,37 +1500,37 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1546,34 +1546,34 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1586,37 +1586,37 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1629,37 +1629,37 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1675,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1715,34 +1715,34 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1801,34 +1801,34 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1847,31 +1847,31 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1887,31 +1887,31 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2016,37 +2016,37 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2059,13 +2059,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2086,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2102,34 +2102,34 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2145,37 +2145,37 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2188,25 +2188,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2231,37 +2231,37 @@
         <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2274,31 +2274,31 @@
         <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2323,31 +2323,31 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2363,34 +2363,34 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2403,34 +2403,34 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2449,31 +2449,31 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2532,37 +2532,37 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
         <v>7</v>
       </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>4</v>
-      </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
         <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2575,31 +2575,31 @@
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2618,34 +2618,34 @@
         <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2661,34 +2661,34 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -2704,31 +2704,31 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2793,34 +2793,34 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2839,31 +2839,31 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
         <v>5</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2876,37 +2876,37 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2922,34 +2922,34 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
         <v>6</v>
       </c>
-      <c r="E58" t="n">
-        <v>7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>7</v>
-      </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2962,10 +2962,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3005,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3091,37 +3091,37 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3134,31 +3134,31 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3220,34 +3220,34 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3263,37 +3263,37 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3309,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3321,19 +3321,19 @@
         <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -3352,34 +3352,34 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3392,37 +3392,37 @@
         <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3435,34 +3435,34 @@
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3481,34 +3481,34 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3521,34 +3521,34 @@
         <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -3564,37 +3564,37 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3607,37 +3607,37 @@
         <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3653,34 +3653,34 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3693,19 +3693,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3779,34 +3779,34 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -3822,31 +3822,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3880,22 +3880,22 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3911,34 +3911,34 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3963,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3994,37 +3994,37 @@
         <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4037,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4052,22 +4052,22 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4080,37 +4080,37 @@
         <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4166,37 +4166,37 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4209,31 +4209,31 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4252,37 +4252,37 @@
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4301,31 +4301,31 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4338,34 +4338,34 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
         <v>5</v>
       </c>
-      <c r="D91" t="n">
-        <v>4</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4</v>
-      </c>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4381,13 +4381,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4424,34 +4424,34 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4467,37 +4467,37 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4553,37 +4553,37 @@
         <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
         <v>6</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>7</v>
-      </c>
-      <c r="H96" t="n">
+      <c r="K96" t="n">
         <v>8</v>
       </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>17</v>
-      </c>
-      <c r="K96" t="n">
-        <v>17</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4596,37 +4596,37 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4639,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4654,22 +4654,22 @@
         <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4694,25 +4694,25 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4725,37 +4725,37 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
         <v>10</v>
       </c>
-      <c r="E100" t="n">
-        <v>45</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4</v>
-      </c>
-      <c r="G100" t="n">
-        <v>21</v>
-      </c>
-      <c r="H100" t="n">
-        <v>16</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>36</v>
-      </c>
-      <c r="K100" t="n">
-        <v>38</v>
-      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4774,31 +4774,31 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4811,34 +4811,34 @@
         <v>9</v>
       </c>
       <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
         <v>6</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5</v>
-      </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4900,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -4924,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4940,13 +4940,13 @@
         <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4986,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -5026,37 +5026,37 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -5069,37 +5069,37 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -5112,34 +5112,34 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J109" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K109" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -5155,25 +5155,25 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5198,31 +5198,31 @@
         <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -5241,19 +5241,19 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5262,16 +5262,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -5327,37 +5327,37 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5373,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -5413,34 +5413,34 @@
         <v>15</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="n">
         <v>5</v>
       </c>
-      <c r="K116" t="n">
-        <v>6</v>
-      </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -5456,34 +5456,34 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
@@ -5499,37 +5499,37 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5542,10 +5542,10 @@
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5585,37 +5585,37 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5628,37 +5628,37 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -5671,37 +5671,37 @@
         <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5</v>
+      </c>
+      <c r="J122" t="n">
         <v>8</v>
       </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3</v>
-      </c>
-      <c r="G122" t="n">
+      <c r="K122" t="n">
         <v>8</v>
       </c>
-      <c r="H122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15</v>
-      </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5714,34 +5714,34 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>6</v>
       </c>
       <c r="K123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -5757,37 +5757,37 @@
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5800,37 +5800,37 @@
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5843,34 +5843,34 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
@@ -5889,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5904,16 +5904,16 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -5932,34 +5932,34 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5975,34 +5975,34 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -6015,37 +6015,37 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6086,65 +6086,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2053286583931037</v>
+        <v>-1.474434545021718</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7450470794866288</v>
+        <v>1.847466023853366</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9564301152049972</v>
+        <v>-0.1785972712325752</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3484670630873642</v>
+        <v>0.7141498030515947</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.635589199946947</v>
+        <v>-1.598375318932366</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04169888982973947</v>
+        <v>-1.533141859245664</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9872966039119747</v>
+        <v>-0.9234213564245997</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2183404201960304</v>
+        <v>-1.026518579581215</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.927910321372009</v>
+        <v>-0.5054721598906395</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.5949634979816961</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.587797439708935</v>
+        <v>-0.4446980643628632</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.660420022323002</v>
+        <v>-0.09948952906838744</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6152,21 +6152,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.851070245875261</v>
+        <v>-1.748566522011973</v>
       </c>
       <c r="B8" t="n">
-        <v>3.080340495272236</v>
+        <v>0.7863091063482566</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.562507155244988</v>
+        <v>0.7513121942951165</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5994263050580602</v>
+        <v>-1.447076365858285</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4808264718034476</v>
+        <v>1.223049294681295</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4137982976458458</v>
+        <v>0.8002287448888225</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6185,32 +6185,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4683873938442899</v>
+        <v>-2.028103067505476</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.08085885954583402</v>
+        <v>1.826711530684885</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.11564150501157</v>
+        <v>3.480489598968949</v>
       </c>
       <c r="B12" t="n">
-        <v>5.893858568866931</v>
+        <v>-1.668562244569854</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.099614877483906</v>
+        <v>1.271764787545095</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.303545543384357</v>
+        <v>-3.18719086975588</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,65 +6218,65 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.881610588311543</v>
+        <v>-1.628053954438269</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3288361831495524</v>
+        <v>0.5518085061376383</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.35778933195831</v>
+        <v>-1.600109907618195</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7352700950512924</v>
+        <v>-0.7076947437141601</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.54010954640303</v>
+        <v>0.01001511571706109</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2236103913730628</v>
+        <v>-1.808604440743867</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0421907893198591</v>
+        <v>0.4097307431394506</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09658111874244707</v>
+        <v>0.7373464064777172</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.730151622799147</v>
+        <v>-1.185407738760894</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07803138979081414</v>
+        <v>0.3025281917699266</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.278489035900095</v>
+        <v>-1.492835265163861</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.279895059825033</v>
+        <v>0.150484357873381</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,109 +6284,109 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1280613041206108</v>
+        <v>-0.3555588488399015</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.178785880763921</v>
+        <v>-1.06196302632885</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.927910321372009</v>
+        <v>-0.3223292114874821</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-2.473062069004984</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.927910321372009</v>
+        <v>-2.835589181368492</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.02314689726200994</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.1796780060014</v>
+        <v>2.156557067282412</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.008137895763652</v>
+        <v>2.692912397112539</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.07643937602109807</v>
+        <v>-0.1925703644907984</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4474088917813753</v>
+        <v>1.051714503783026</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.830821996712642</v>
+        <v>-1.734208112698593</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3534427274368674</v>
+        <v>-0.6527746247597918</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.8479466490466978</v>
+        <v>-0.1700119702112483</v>
       </c>
       <c r="B26" t="n">
-        <v>0.768551050049035</v>
+        <v>-0.4618254827983269</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.552195086622038</v>
+        <v>0.2489612406456508</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1102924651360249</v>
+        <v>1.281230410837092</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.4880932701855341</v>
+        <v>-2.521651890169594</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1900528546654486</v>
+        <v>0.8338111776475087</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.063925719611637</v>
+        <v>2.825881956798343</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8232766236292032</v>
+        <v>0.7994806636522576</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.790537613873935</v>
+        <v>0.8252900116065534</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5776780264417776</v>
+        <v>0.7751686640337437</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,21 +6405,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.927910321372009</v>
+        <v>-2.729723020896207</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.1122045635701765</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.3178655076223431</v>
+        <v>1.485596068517741</v>
       </c>
       <c r="B32" t="n">
-        <v>1.018247954438128</v>
+        <v>-1.409608731649951</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4546891943821484</v>
+        <v>0.7307092741889953</v>
       </c>
       <c r="B33" t="n">
-        <v>1.452928703490771</v>
+        <v>-0.5313337671777001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.2427252292472873</v>
+        <v>0.5954780989050233</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4948009219489632</v>
+        <v>-1.497044538518606</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2585999615042585</v>
+        <v>1.912606087357047</v>
       </c>
       <c r="B35" t="n">
-        <v>1.492350218449856</v>
+        <v>-0.4305788092517873</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.881610588311543</v>
+        <v>1.155705462737745</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3288361831495524</v>
+        <v>-2.922438051560474</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -6471,32 +6471,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.38200844259615</v>
+        <v>4.025720093750443</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2041057831057748</v>
+        <v>-0.4587579224373179</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.8281322781729904</v>
+        <v>-1.722574855767603</v>
       </c>
       <c r="B38" t="n">
-        <v>2.02951312721802</v>
+        <v>0.0533387703042526</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.428946398202331</v>
+        <v>1.675304272080312</v>
       </c>
       <c r="B39" t="n">
-        <v>2.670414792016639</v>
+        <v>0.5633517537048166</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -6504,43 +6504,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.610912076840921</v>
+        <v>-0.3791984654551641</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0783141612745597</v>
+        <v>-0.669371445561464</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.5299839432361496</v>
+        <v>-1.22513358690867</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3720831519820158</v>
+        <v>-0.1130392949917288</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.8727520405758906</v>
+        <v>-2.380475461913859</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.7410865430674832</v>
+        <v>-0.4530649241368749</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.764876422594497</v>
+        <v>2.283145582660143</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.7156898084846334</v>
+        <v>-2.555309466441094</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,32 +6548,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.730151622799147</v>
+        <v>-1.744738974633943</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.07803138979081414</v>
+        <v>-0.2310011954653133</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.168086353409218</v>
+        <v>0.1181598544409628</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.072898276714189</v>
+        <v>-2.569125130296325</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.649306595287489</v>
+        <v>1.090818619068147</v>
       </c>
       <c r="B46" t="n">
-        <v>1.747582030069519</v>
+        <v>4.481382377546916</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.690002856358182</v>
+        <v>0.1294894402995072</v>
       </c>
       <c r="B47" t="n">
-        <v>0.541112725630512</v>
+        <v>0.2172886575197665</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -6592,32 +6592,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.264184480983548</v>
+        <v>-1.439430185966753</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4146128305001332</v>
+        <v>0.340754780218578</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.059788622295167</v>
+        <v>3.134245639646476</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03266858571341866</v>
+        <v>0.6954830490451374</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.7281260368235063</v>
+        <v>1.401879361339828</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.5888217474086783</v>
+        <v>-0.07107472782812436</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.7044556902536563</v>
+        <v>0.6939625846163904</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.256451563245414</v>
+        <v>-0.228066674426666</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.718576689534031</v>
+        <v>0.6454941263660178</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1345214164404589</v>
+        <v>1.201118309899017</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5309677643375673</v>
+        <v>6.589298774887432</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3942102449139969</v>
+        <v>1.532206645954026</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,76 +6658,76 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.570592640095512</v>
+        <v>-2.816767514501719</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1743641554956367</v>
+        <v>0.0863600500763779</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8270342915605092</v>
+        <v>-0.1874779047124999</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.925834465247097</v>
+        <v>2.202472587991316</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.177282497200279</v>
+        <v>0.4723590546960659</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7602684141586555</v>
+        <v>-0.436693514144892</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.920757669791527</v>
+        <v>-2.500128991689101</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03073298803977459</v>
+        <v>0.1099911179213593</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.974529577431821</v>
+        <v>4.08874496963223</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01942245504706466</v>
+        <v>-1.17881441128832</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1.235332980381523</v>
+        <v>0.09989879954338096</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9124447465775788</v>
+        <v>0.9800159025822578</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5269157916260181</v>
+        <v>2.201562505100133</v>
       </c>
       <c r="B60" t="n">
-        <v>2.264940059491904</v>
+        <v>-2.537529147759679</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,32 +6735,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.866177343958054</v>
+        <v>-2.889853512100338</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6122399247912497</v>
+        <v>0.1862933748376544</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.310620685302843</v>
+        <v>-0.9976546033459947</v>
       </c>
       <c r="B62" t="n">
-        <v>1.149398268684206</v>
+        <v>-1.820515357580674</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.815852200375134</v>
+        <v>-0.2163985420200354</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.279246983609633</v>
+        <v>1.540591495354755</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.642265405850948</v>
+        <v>-0.3239867730207844</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.876256887523921</v>
+        <v>2.032237827413685</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.200469540913061</v>
+        <v>0.705777064909351</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2912934198525083</v>
+        <v>2.232511626408085</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,21 +6790,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.870035655046427</v>
+        <v>-1.263194784507092</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5413889893808254</v>
+        <v>1.024493290516314</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09581103507531169</v>
+        <v>4.43053837238538</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9635439580209038</v>
+        <v>0.6215561207840336</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6812,32 +6812,32 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6467383872394529</v>
+        <v>-1.116831128805514</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.4114837494019578</v>
+        <v>-0.2776473732640367</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.927910321372009</v>
+        <v>-1.622719115477973</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-1.137787234988315</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1205966152092273</v>
+        <v>5.798206240615918</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3017452015881379</v>
+        <v>2.589539983900586</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6845,21 +6845,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.52024509789113</v>
+        <v>-0.4930157708252461</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.951248509927245</v>
+        <v>0.8280339876083682</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3155342196337678</v>
+        <v>4.055427696709888</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1844748643611479</v>
+        <v>-0.7011031111661231</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,54 +6867,54 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.9689222791618306</v>
+        <v>-0.1161380582776458</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.09306252438563606</v>
+        <v>-0.321991826861894</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.927910321372009</v>
+        <v>-0.5645231965413503</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.8930464046479087</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.2851204217918982</v>
+        <v>-2.839376722361498</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1364778482730494</v>
+        <v>-0.3437324411977772</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.85846072178131</v>
+        <v>-1.320922356025314</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7539417956120983</v>
+        <v>-0.960010925639757</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.608149980243742</v>
+        <v>1.182815029934111</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2430366299283257</v>
+        <v>-2.540265353753827</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.118197096751036</v>
+        <v>2.296582524732585</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5702001294139096</v>
+        <v>-2.50030833828875</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.346803887569433</v>
+        <v>1.544569151427251</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3922997487044737</v>
+        <v>-2.635609846533635</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,98 +6944,98 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.463538053286479</v>
+        <v>-1.889736665702117</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6522262429297118</v>
+        <v>-0.1994451152632673</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.2355197207890022</v>
+        <v>-1.961142478521627</v>
       </c>
       <c r="B81" t="n">
-        <v>1.954971961754793</v>
+        <v>2.952486413097523</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.764876422594497</v>
+        <v>-1.488721617467074</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7156898084846334</v>
+        <v>-1.301613981618064</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.927910321372009</v>
+        <v>-1.131426850009497</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.2037404263985161</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.5663285694506298</v>
+        <v>0.4667451287038288</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.6585950571827457</v>
+        <v>-1.255091907981194</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.407926824319199</v>
+        <v>-2.662619766967385</v>
       </c>
       <c r="B85" t="n">
-        <v>0.133956613261082</v>
+        <v>0.186373652062337</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.1937214029915132</v>
+        <v>-0.1553478603116993</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.6625177519732642</v>
+        <v>-0.1807835313185597</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.5434509690592</v>
+        <v>-1.318844936515513</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9848249710158897</v>
+        <v>0.52849934934286</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5314958707818469</v>
+        <v>2.936382590233167</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.257594371774561</v>
+        <v>0.8371842449003211</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,32 +7043,32 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1.57483434619838</v>
+        <v>-0.04476077934914884</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.4140480273207563</v>
+        <v>1.803426782393768</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1.111378529131985</v>
+        <v>-2.797500758641508</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9678439793588813</v>
+        <v>0.3416195229193551</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.306934923776956</v>
+        <v>0.5783206621773822</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.317330493424961</v>
+        <v>-0.1490152767793341</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -7076,21 +7076,21 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.927910321372009</v>
+        <v>-2.729723020896207</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5213750417755396</v>
+        <v>-0.1122045635701765</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.9531201721345618</v>
+        <v>1.157989169642244</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4737014959976361</v>
+        <v>-0.2441128902621854</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -7098,98 +7098,98 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.2625143220569079</v>
+        <v>-0.02063933769927459</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7353623212338709</v>
+        <v>0.6572705464417278</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.730151622799147</v>
+        <v>-2.816767514501719</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.07803138979081414</v>
+        <v>0.0863600500763779</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.660729217883526</v>
+        <v>1.814925461740826</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.747073138217407</v>
+        <v>-0.3710348039571162</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.4975049184298463</v>
+        <v>0.003259160478269075</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.7315381503137354</v>
+        <v>0.9012583085362179</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.2719698766443776</v>
+        <v>0.4201760769426217</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6970721776777868</v>
+        <v>-0.4281006127316144</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.221743059011454</v>
+        <v>-0.1087886422143902</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3647474590145343</v>
+        <v>-2.171702000559472</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.81798845767145</v>
+        <v>2.563005645266532</v>
       </c>
       <c r="B100" t="n">
-        <v>1.630441060253126</v>
+        <v>-0.09989786150090742</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.635589199946947</v>
+        <v>-1.293142995206188</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.04169888982973947</v>
+        <v>-0.6620009410195615</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.6419178141118181</v>
+        <v>2.348221491083839</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.44148328375442</v>
+        <v>2.060683865985385</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,76 +7197,76 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.217884747923082</v>
+        <v>-1.737631190962547</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4355983944249587</v>
+        <v>0.02089568596782602</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.6572095421943817</v>
+        <v>-0.4988441205651065</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.4242921209617359</v>
+        <v>2.209001201688562</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.89318552157666</v>
+        <v>-2.405669030303257</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1162833769182794</v>
+        <v>0.8684433019943141</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.4547971975228111</v>
+        <v>-1.100232341128391</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.033476761755104</v>
+        <v>-0.9496232209742826</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.2228261824970088</v>
+        <v>-0.6215314846979895</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05130713733713032</v>
+        <v>-0.3302106797862902</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.695426823003798</v>
+        <v>0.2876168650304965</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5596270289030048</v>
+        <v>0.5168596199566612</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.112322891397693</v>
+        <v>9.543775412742882</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.6571460732305332</v>
+        <v>-1.543888534225492</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.6142231762411652</v>
+        <v>0.8788309055701452</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001376443306733083</v>
+        <v>2.217317654423522</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.058001980213713</v>
+        <v>-2.896884830830721</v>
       </c>
       <c r="B111" t="n">
-        <v>-2.315954014194257</v>
+        <v>-0.3649884491376963</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -7296,43 +7296,43 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.380918646700594</v>
+        <v>-1.48931963634254</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6299131611340523</v>
+        <v>-0.8485966220382299</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.665477564988537</v>
+        <v>-2.524856937284656</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8974577309446724</v>
+        <v>0.09961076843454998</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.881610588311543</v>
+        <v>-1.645278437503717</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3288361831495524</v>
+        <v>0.1762218340495268</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.44517826087705</v>
+        <v>1.549360071916777</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5433031700757122</v>
+        <v>-0.4663647829011678</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.5503964805378261</v>
+        <v>0.9482508456352244</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.101140136225172</v>
+        <v>0.2724494883297964</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.725542350903432</v>
+        <v>-1.644940739903432</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3545817563161839</v>
+        <v>-0.06985644335771231</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -7362,65 +7362,65 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.424390436975791</v>
+        <v>2.667952989355675</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.195786521752554</v>
+        <v>1.247097937739001</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.472555301169435</v>
+        <v>-3.121999838227897</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2360136565388329</v>
+        <v>-0.7847808681497248</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.563259412933263</v>
+        <v>-0.9344209085963568</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2014952210894833</v>
+        <v>-0.05676134060118442</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.718576689534031</v>
+        <v>0.3796062602479587</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1345214164404589</v>
+        <v>-1.266735684896262</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.58673694361798</v>
+        <v>3.181167047856599</v>
       </c>
       <c r="B122" t="n">
-        <v>-2.042151145760149</v>
+        <v>0.8957185828879644</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2198111147002261</v>
+        <v>3.148113088761857</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.001104229381418414</v>
+        <v>3.472141939199656</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,32 +7428,32 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.881610588311543</v>
+        <v>-1.82203539289783</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3288361831495524</v>
+        <v>-0.3538842592105875</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.198020299411182</v>
+        <v>-2.729723020896207</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.7392605068753488</v>
+        <v>-0.1122045635701765</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.226922053308803</v>
+        <v>-1.511908458688799</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.054072158623178</v>
+        <v>0.5782084812200287</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.02253959902313649</v>
+        <v>0.5502115650766456</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.4932917186520194</v>
+        <v>-0.1262765627589885</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,35 +7472,35 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.91247707701852</v>
+        <v>-0.5496940363611386</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.2379713001338423</v>
+        <v>0.6247600826633107</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.02300283813508375</v>
+        <v>-1.578819161838613</v>
       </c>
       <c r="B129" t="n">
-        <v>1.36392973768238</v>
+        <v>1.196535159119387</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.957074055527201</v>
+        <v>-0.1078461322750099</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.384442148923435</v>
+        <v>0.5152080145008913</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -447,52 +447,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -511,37 +511,37 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -683,37 +683,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -726,37 +726,37 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -769,37 +769,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -812,34 +812,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -898,37 +898,37 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -941,37 +941,37 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -987,28 +987,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1030,34 +1030,34 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1073,34 +1073,34 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1159,34 +1159,34 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1199,37 +1199,37 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1242,34 +1242,34 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1340,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1414,37 +1414,37 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1463,31 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1500,37 +1500,37 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1546,34 +1546,34 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1586,37 +1586,37 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1629,37 +1629,37 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1675,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1715,34 +1715,34 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1801,34 +1801,34 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1847,31 +1847,31 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1887,31 +1887,31 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2016,37 +2016,37 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2059,13 +2059,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2086,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2102,34 +2102,34 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2145,37 +2145,37 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2188,25 +2188,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2231,37 +2231,37 @@
         <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2274,31 +2274,31 @@
         <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2323,31 +2323,31 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2363,34 +2363,34 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2403,34 +2403,34 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2449,31 +2449,31 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15</v>
+      </c>
+      <c r="L47" t="n">
         <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2532,37 +2532,37 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7</v>
-      </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
         <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2575,31 +2575,31 @@
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2618,34 +2618,34 @@
         <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2661,34 +2661,34 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -2704,31 +2704,31 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
         <v>3</v>
       </c>
-      <c r="D53" t="n">
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="K53" t="n">
         <v>6</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10</v>
-      </c>
-      <c r="K53" t="n">
-        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2793,34 +2793,34 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
-      <c r="E55" t="n">
+      <c r="I55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2839,31 +2839,31 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2876,37 +2876,37 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2922,28 +2922,28 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -2962,10 +2962,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3005,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3091,37 +3091,37 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3134,31 +3134,31 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
         <v>3</v>
       </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
         <v>4</v>
       </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3220,34 +3220,34 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3263,37 +3263,37 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3309,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3321,19 +3321,19 @@
         <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
         <v>5</v>
       </c>
-      <c r="J67" t="n">
-        <v>9</v>
-      </c>
-      <c r="K67" t="n">
-        <v>14</v>
-      </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -3352,34 +3352,34 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3392,37 +3392,37 @@
         <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3435,34 +3435,34 @@
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
         <v>3</v>
       </c>
-      <c r="G70" t="n">
-        <v>8</v>
-      </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3481,34 +3481,34 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3521,34 +3521,34 @@
         <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
         <v>4</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="K72" t="n">
         <v>6</v>
       </c>
-      <c r="H72" t="n">
-        <v>6</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12</v>
-      </c>
-      <c r="K72" t="n">
-        <v>12</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -3564,37 +3564,37 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>3</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3607,37 +3607,37 @@
         <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3653,34 +3653,34 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3693,19 +3693,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3779,34 +3779,34 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -3822,31 +3822,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3880,22 +3880,22 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3911,34 +3911,34 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
         <v>5</v>
       </c>
-      <c r="E81" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3963,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3994,37 +3994,37 @@
         <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4037,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4052,22 +4052,22 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4080,37 +4080,37 @@
         <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4166,37 +4166,37 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4209,31 +4209,31 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
         <v>4</v>
       </c>
-      <c r="H88" t="n">
+      <c r="K88" t="n">
         <v>4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4252,37 +4252,37 @@
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4301,31 +4301,31 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4338,37 +4338,37 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4381,13 +4381,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4424,34 +4424,34 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4467,37 +4467,37 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4553,37 +4553,37 @@
         <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K96" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4596,37 +4596,37 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4639,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4654,22 +4654,22 @@
         <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4694,25 +4694,25 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4725,37 +4725,37 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4774,31 +4774,31 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4811,34 +4811,34 @@
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4900,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -4924,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4940,13 +4940,13 @@
         <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4986,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5026,37 +5026,37 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5069,37 +5069,37 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5112,34 +5112,34 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
         <v>4</v>
       </c>
-      <c r="G109" t="n">
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7</v>
+      </c>
+      <c r="K109" t="n">
         <v>9</v>
       </c>
-      <c r="H109" t="n">
-        <v>9</v>
-      </c>
-      <c r="I109" t="n">
-        <v>18</v>
-      </c>
-      <c r="J109" t="n">
-        <v>18</v>
-      </c>
-      <c r="K109" t="n">
-        <v>18</v>
-      </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -5155,25 +5155,25 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5198,31 +5198,31 @@
         <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -5241,19 +5241,19 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5262,16 +5262,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5327,37 +5327,37 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5373,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -5413,34 +5413,34 @@
         <v>15</v>
       </c>
       <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
         <v>4</v>
       </c>
-      <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -5456,34 +5456,34 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
@@ -5499,34 +5499,34 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J118" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5585,37 +5585,37 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5628,37 +5628,37 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5671,37 +5671,37 @@
         <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J122" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5714,34 +5714,34 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
         <v>5</v>
       </c>
-      <c r="E123" t="n">
-        <v>3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3</v>
-      </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
         <v>6</v>
       </c>
       <c r="K123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -5757,37 +5757,37 @@
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5800,37 +5800,37 @@
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5843,37 +5843,37 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
         <v>4</v>
       </c>
-      <c r="D126" t="n">
-        <v>2</v>
-      </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5889,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5904,16 +5904,16 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -5932,34 +5932,34 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5975,34 +5975,34 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6015,37 +6015,37 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K130" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6086,87 +6086,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.474434545021718</v>
+        <v>-0.1288168596745483</v>
       </c>
       <c r="B2" t="n">
-        <v>1.847466023853366</v>
+        <v>-0.09774621882008723</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1785972712325752</v>
+        <v>-0.5111571709533484</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7141498030515947</v>
+        <v>-0.08143631519500012</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.598375318932366</v>
+        <v>-0.9179654033857274</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.533141859245664</v>
+        <v>0.2775563384434007</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9234213564245997</v>
+        <v>-0.5111571709533484</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.026518579581215</v>
+        <v>-0.08143631519500012</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5054721598906395</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5949634979816961</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4446980643628632</v>
+        <v>1.479676361432987</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.09948952906838744</v>
+        <v>-0.6422722000619696</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.748566522011973</v>
+        <v>-1.064763712329076</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7863091063482566</v>
+        <v>0.72790285023797</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7513121942951165</v>
+        <v>-1.231700217947005</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.447076365858285</v>
+        <v>0.5731219406616791</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.223049294681295</v>
+        <v>-0.4895576542159245</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8002287448888225</v>
+        <v>0.2647182403737337</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6185,32 +6185,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.028103067505476</v>
+        <v>-0.2879137974505797</v>
       </c>
       <c r="B11" t="n">
-        <v>1.826711530684885</v>
+        <v>-0.02425345878437561</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.480489598968949</v>
+        <v>10.70701838538752</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.668562244569854</v>
+        <v>6.604165512063793</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.271764787545095</v>
+        <v>-0.05992493535346397</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.18719086975588</v>
+        <v>-0.7966492330177239</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,65 +6218,65 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.628053954438269</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5518085061376383</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.600109907618195</v>
+        <v>-0.4372940832065212</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7076947437141601</v>
+        <v>0.1367716458014132</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01001511571706109</v>
+        <v>-0.813479742299585</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.808604440743867</v>
+        <v>-0.1370581228532501</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4097307431394506</v>
+        <v>0.3357488851667241</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7373464064777172</v>
+        <v>0.1438233048920777</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.185407738760894</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3025281917699266</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.492835265163861</v>
+        <v>2.782064792467016</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150484357873381</v>
+        <v>-1.527412885092933</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,109 +6284,109 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3555588488399015</v>
+        <v>-0.06042028463373889</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.06196302632885</v>
+        <v>-0.3622579896690682</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.3223292114874821</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.473062069004984</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.835589181368492</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.02314689726200994</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.156557067282412</v>
+        <v>6.882503621895504</v>
       </c>
       <c r="B23" t="n">
-        <v>2.692912397112539</v>
+        <v>-2.264355105045078</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.1925703644907984</v>
+        <v>-0.2409078174704807</v>
       </c>
       <c r="B24" t="n">
-        <v>1.051714503783026</v>
+        <v>-0.09115231575991818</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.734208112698593</v>
+        <v>0.803557317606836</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6527746247597918</v>
+        <v>-0.3439342083896135</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.1700119702112483</v>
+        <v>-0.3396926947184977</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.4618254827983269</v>
+        <v>0.6264349887576477</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2489612406456508</v>
+        <v>-1.231700217947005</v>
       </c>
       <c r="B27" t="n">
-        <v>1.281230410837092</v>
+        <v>0.5731219406616791</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2.521651890169594</v>
+        <v>-0.05948174254464273</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8338111776475087</v>
+        <v>-0.4326286522000309</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.825881956798343</v>
+        <v>-1.152621020103537</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7994806636522576</v>
+        <v>0.5715608919093046</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8252900116065534</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7751686640337437</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,21 +6405,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.729723020896207</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1122045635701765</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.485596068517741</v>
+        <v>-0.4641511909732496</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.409608731649951</v>
+        <v>-0.1483351721705427</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7307092741889953</v>
+        <v>-0.4971629509257144</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5313337671777001</v>
+        <v>-0.143302317862748</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5954780989050233</v>
+        <v>0.0001367225651729467</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.497044538518606</v>
+        <v>-0.8550434301300516</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.912606087357047</v>
+        <v>-0.2599253573953115</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4305788092517873</v>
+        <v>-0.1479854641198714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.155705462737745</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.922438051560474</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -6471,32 +6471,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.025720093750443</v>
+        <v>7.255837629727095</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4587579224373179</v>
+        <v>-0.09876589441251715</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.722574855767603</v>
+        <v>-1.008456844444236</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0533387703042526</v>
+        <v>0.6303047970723036</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.675304272080312</v>
+        <v>-1.166615240131171</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5633517537048166</v>
+        <v>0.6334268945770526</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -6504,43 +6504,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.3791984654551641</v>
+        <v>0.593647453345455</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.669371445561464</v>
+        <v>0.5556653767346509</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.22513358690867</v>
+        <v>-0.3199870153139484</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1130392949917288</v>
+        <v>-0.08959126700754372</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-2.380475461913859</v>
+        <v>-0.2625073342079048</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4530649241368749</v>
+        <v>-0.437306871328652</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.283145582660143</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.555309466441094</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,32 +6548,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.744738974633943</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2310011954653133</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1181598544409628</v>
+        <v>-0.1644105964396064</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.569125130296325</v>
+        <v>-0.3820347717210731</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.090818619068147</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B46" t="n">
-        <v>4.481382377546916</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1294894402995072</v>
+        <v>1.6354181418133</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2172886575197665</v>
+        <v>-1.51897290562948</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -6592,32 +6592,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.439430185966753</v>
+        <v>-0.9039711833580933</v>
       </c>
       <c r="B48" t="n">
-        <v>0.340754780218578</v>
+        <v>0.2156903357756527</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.134245639646476</v>
+        <v>2.727948865057402</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6954830490451374</v>
+        <v>-2.302925829702527</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.401879361339828</v>
+        <v>-0.2945805520712735</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.07107472782812436</v>
+        <v>-0.50264467955182</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6939625846163904</v>
+        <v>-0.2625073342079048</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.228066674426666</v>
+        <v>-0.437306871328652</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6454941263660178</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B52" t="n">
-        <v>1.201118309899017</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.589298774887432</v>
+        <v>0.5266412095032743</v>
       </c>
       <c r="B53" t="n">
-        <v>1.532206645954026</v>
+        <v>-0.8126094285921398</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,54 +6658,54 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.816767514501719</v>
+        <v>-1.087536042287704</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0863600500763779</v>
+        <v>0.6318658458246781</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.1874779047124999</v>
+        <v>0.211967852852901</v>
       </c>
       <c r="B55" t="n">
-        <v>2.202472587991316</v>
+        <v>-0.4466731638428988</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4723590546960659</v>
+        <v>-0.3964842363448227</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.436693514144892</v>
+        <v>0.2012911889536113</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-2.500128991689101</v>
+        <v>1.125574892818832</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1099911179213593</v>
+        <v>-0.04720556017819631</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.08874496963223</v>
+        <v>1.499126418627849</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.17881441128832</v>
+        <v>0.7357146254340353</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -6713,21 +6713,21 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.09989879954338096</v>
+        <v>-0.4581725758322743</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9800159025822578</v>
+        <v>1.102915452722046</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.201562505100133</v>
+        <v>-0.3669929952940473</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.537529147759679</v>
+        <v>-0.02269241003200114</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,32 +6735,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-2.889853512100338</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1862933748376544</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.9976546033459947</v>
+        <v>-0.6301598300408722</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.820515357580674</v>
+        <v>0.5836463520405624</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.2163985420200354</v>
+        <v>1.596512807823266</v>
       </c>
       <c r="B63" t="n">
-        <v>1.540591495354755</v>
+        <v>-1.478444733766112</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.3239867730207844</v>
+        <v>2.112334671958709</v>
       </c>
       <c r="B64" t="n">
-        <v>2.032237827413685</v>
+        <v>-1.698961454324806</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.705777064909351</v>
+        <v>-0.08324477106382037</v>
       </c>
       <c r="B65" t="n">
-        <v>2.232511626408085</v>
+        <v>0.3401168300839886</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,21 +6790,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.263194784507092</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B66" t="n">
-        <v>1.024493290516314</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.43053837238538</v>
+        <v>-0.1694339163368031</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6215561207840336</v>
+        <v>-0.5007339227487744</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -6812,32 +6812,32 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.116831128805514</v>
+        <v>0.4264056877312038</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2776473732640367</v>
+        <v>-0.7931823545908061</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.622719115477973</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.137787234988315</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.798206240615918</v>
+        <v>0.2639971527301966</v>
       </c>
       <c r="B70" t="n">
-        <v>2.589539983900586</v>
+        <v>-0.3948728697907402</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6845,21 +6845,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.4930157708252461</v>
+        <v>-0.7013887845036525</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8280339876083682</v>
+        <v>-0.1436520259134193</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.055427696709888</v>
+        <v>0.1659004149618982</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7011031111661231</v>
+        <v>-0.4501449693983189</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,54 +6867,54 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1161380582776458</v>
+        <v>-0.4714786563801898</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.321991826861894</v>
+        <v>0.3919220512646497</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.5645231965413503</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.8930464046479087</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-2.839376722361498</v>
+        <v>0.0108086698290415</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.3437324411977772</v>
+        <v>0.3650403882849134</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.320922356025314</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.960010925639757</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.182815029934111</v>
+        <v>-1.231700217947005</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.540265353753827</v>
+        <v>0.5731219406616791</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.296582524732585</v>
+        <v>0.9809675243507096</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.50030833828875</v>
+        <v>-0.4699700461588883</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.544569151427251</v>
+        <v>-0.7344005444561174</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.635609846533635</v>
+        <v>-0.1386191716056246</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,98 +6944,98 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.889736665702117</v>
+        <v>-0.983050381201561</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1994451152632673</v>
+        <v>0.2172513845280272</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.961142478521627</v>
+        <v>-0.771219250913833</v>
       </c>
       <c r="B81" t="n">
-        <v>2.952486413097523</v>
+        <v>0.6256216508151802</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.488721617467074</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.301613981618064</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.131426850009497</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.2037404263985161</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4667451287038288</v>
+        <v>-0.6667335898276905</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.255091907981194</v>
+        <v>0.2110071895185293</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-2.662619766967385</v>
+        <v>-1.152621020103537</v>
       </c>
       <c r="B85" t="n">
-        <v>0.186373652062337</v>
+        <v>0.5715608919093046</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.1553478603116993</v>
+        <v>-0.2409078174704807</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1807835313185597</v>
+        <v>-0.09115231575991818</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.318844936515513</v>
+        <v>-0.834358234925338</v>
       </c>
       <c r="B87" t="n">
-        <v>0.52849934934286</v>
+        <v>0.8290856840673833</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.936382590233167</v>
+        <v>0.8657824873072264</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8371842449003211</v>
+        <v>-1.521228443354694</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,54 +7043,54 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.04476077934914884</v>
+        <v>-0.813479742299585</v>
       </c>
       <c r="B89" t="n">
-        <v>1.803426782393768</v>
+        <v>-0.1370581228532501</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.797500758641508</v>
+        <v>-0.9039711833580933</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3416195229193551</v>
+        <v>0.2156903357756527</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5783206621773822</v>
+        <v>1.705083246717509</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1490152767793341</v>
+        <v>-1.703989381504098</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.729723020896207</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1122045635701765</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.157989169642244</v>
+        <v>-0.6156428320394909</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.2441128902621854</v>
+        <v>0.3331781461016507</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -7098,98 +7098,98 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.02063933769927459</v>
+        <v>0.367544271727243</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6572705464417278</v>
+        <v>-0.7391166685564281</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2.816767514501719</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0863600500763779</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.814925461740826</v>
+        <v>2.726723895364744</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3710348039571162</v>
+        <v>-1.254396454380737</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.003259160478269075</v>
+        <v>0.4995913115371023</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9012583085362179</v>
+        <v>-0.7592480857876067</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4201760769426217</v>
+        <v>-0.4180837530822468</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4281006127316144</v>
+        <v>-0.1448633666151225</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.1087886422143902</v>
+        <v>-0.9039711833580933</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.171702000559472</v>
+        <v>0.2156903357756527</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.563005645266532</v>
+        <v>7.052924135436083</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.09989786150090742</v>
+        <v>2.458897301806197</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.293142995206188</v>
+        <v>-0.9179654033857274</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.6620009410195615</v>
+        <v>0.2775563384434007</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.348221491083839</v>
+        <v>0.5765155938995278</v>
       </c>
       <c r="B102" t="n">
-        <v>2.060683865985385</v>
+        <v>-1.568345591149729</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,76 +7197,76 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.737631190962547</v>
+        <v>-0.9039711833580933</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02089568596782602</v>
+        <v>0.2156903357756527</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.4988441205651065</v>
+        <v>-0.03832541861603984</v>
       </c>
       <c r="B104" t="n">
-        <v>2.209001201688562</v>
+        <v>-0.4504946774489902</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.405669030303257</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8684433019943141</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.100232341128391</v>
+        <v>0.07282699709079651</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9496232209742826</v>
+        <v>-0.3867179179781965</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.6215314846979895</v>
+        <v>-0.1157611817360103</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3302106797862902</v>
+        <v>-0.08924155895687247</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2876168650304965</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5168596199566612</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.543775412742882</v>
+        <v>1.200621469325653</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.543888534225492</v>
+        <v>-1.036248246655584</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8788309055701452</v>
+        <v>-0.4971629509257144</v>
       </c>
       <c r="B110" t="n">
-        <v>2.217317654423522</v>
+        <v>-0.143302317862748</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.896884830830721</v>
+        <v>3.194834886885687</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3649884491376963</v>
+        <v>-1.838077050234595</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -7296,43 +7296,43 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.48931963634254</v>
+        <v>-1.152621020103537</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8485966220382299</v>
+        <v>0.5715608919093046</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.524856937284656</v>
+        <v>-1.02245106447187</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09961076843454998</v>
+        <v>0.6921707997400516</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.645278437503717</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1762218340495268</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.549360071916777</v>
+        <v>-0.813479742299585</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.4663647829011678</v>
+        <v>-0.1370581228532501</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9482508456352244</v>
+        <v>0.3100645906211994</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2724494883297964</v>
+        <v>-0.39140106423532</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.644940739903432</v>
+        <v>2.6051666881581</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.06985644335771231</v>
+        <v>-0.632846154276463</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.667952989355675</v>
+        <v>1.417173360429746</v>
       </c>
       <c r="B118" t="n">
-        <v>1.247097937739001</v>
+        <v>-0.4132557467685625</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -7373,54 +7373,54 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.121999838227897</v>
+        <v>-0.6693155666402838</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.7847808681497248</v>
+        <v>-0.07831421769025119</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.9344209085963568</v>
+        <v>-0.813479742299585</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.05676134060118442</v>
+        <v>-0.1370581228532501</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3796062602479587</v>
+        <v>-1.062129579045029</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.266735684896262</v>
+        <v>0.2188124332804017</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.181167047856599</v>
+        <v>2.900822504883642</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8957185828879644</v>
+        <v>-1.055615567385658</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.148113088761857</v>
+        <v>-0.5876543919842228</v>
       </c>
       <c r="B123" t="n">
-        <v>3.472141939199656</v>
+        <v>0.2094461407661549</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,43 +7428,43 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.82203539289783</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.3538842592105875</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-2.729723020896207</v>
+        <v>-0.7918802255621609</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1122045635701765</v>
+        <v>0.2090964327154837</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.511908458688799</v>
+        <v>1.163359570059116</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5782084812200287</v>
+        <v>-0.6360280050524717</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5502115650766456</v>
+        <v>-0.378405238509088</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1262765627589885</v>
+        <v>0.3284949998445273</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,35 +7472,35 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.5496940363611386</v>
+        <v>-1.310779415790472</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6247600826633107</v>
+        <v>0.5746829894140536</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.578819161838613</v>
+        <v>-0.3059927952863143</v>
       </c>
       <c r="B129" t="n">
-        <v>1.196535159119387</v>
+        <v>-0.1514572696752916</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.1078461322750099</v>
+        <v>1.405342652183866</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5152080145008913</v>
+        <v>-1.470289781953568</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_dep_variables.xlsx
+++ b/Results/pca_kmeans_results_dep_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,52 +447,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -511,34 +511,34 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -557,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -683,37 +683,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -726,37 +726,37 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -769,37 +769,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -812,37 +812,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -855,37 +855,37 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -898,37 +898,37 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -941,34 +941,34 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>91</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19</v>
-      </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -987,28 +987,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1030,31 +1030,31 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1073,28 +1073,28 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1159,34 +1159,34 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1199,37 +1199,37 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1242,34 +1242,34 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1340,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1414,37 +1414,37 @@
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="n">
-        <v>16</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1463,31 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1500,34 +1500,34 @@
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1546,28 +1546,28 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1586,31 +1586,31 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1629,37 +1629,37 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1675,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1715,34 +1715,34 @@
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1801,37 +1801,37 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1847,31 +1847,31 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1887,31 +1887,31 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1951,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1985,25 +1985,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2016,31 +2016,31 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
@@ -2059,13 +2059,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2102,37 +2102,37 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2145,37 +2145,37 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2188,25 +2188,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -2231,37 +2231,37 @@
         <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2274,31 +2274,31 @@
         <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2403,34 +2403,34 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2449,31 +2449,31 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2532,37 +2532,37 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
         <v>7</v>
       </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>4</v>
-      </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
         <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2575,31 +2575,31 @@
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2618,37 +2618,37 @@
         <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2661,37 +2661,37 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2704,31 +2704,31 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2793,28 +2793,28 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
         <v>5</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -2876,37 +2876,37 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2922,34 +2922,34 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
         <v>6</v>
       </c>
-      <c r="E58" t="n">
-        <v>7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>7</v>
-      </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2962,10 +2962,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3005,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3091,34 +3091,34 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3134,31 +3134,31 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3177,37 +3177,37 @@
         <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3220,34 +3220,34 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3263,31 +3263,31 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3309,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3352,28 +3352,28 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3392,31 +3392,31 @@
         <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3435,37 +3435,37 @@
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J70" t="n">
         <v>4</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3481,28 +3481,28 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3521,34 +3521,34 @@
         <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -3564,37 +3564,37 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3607,34 +3607,34 @@
         <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3653,28 +3653,28 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -3693,19 +3693,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3779,34 +3779,34 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -3822,31 +3822,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3880,16 +3880,16 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -3911,31 +3911,31 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3963,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3994,31 +3994,31 @@
         <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4052,16 +4052,16 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4080,31 +4080,31 @@
         <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -4166,31 +4166,31 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4209,31 +4209,31 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4252,31 +4252,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4301,28 +4301,28 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -4338,37 +4338,37 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
         <v>5</v>
       </c>
-      <c r="D91" t="n">
-        <v>4</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4</v>
-      </c>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4381,13 +4381,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4424,37 +4424,37 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4467,34 +4467,34 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4553,34 +4553,34 @@
         <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
         <v>6</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>7</v>
-      </c>
-      <c r="H96" t="n">
+      <c r="K96" t="n">
         <v>8</v>
       </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>17</v>
-      </c>
-      <c r="K96" t="n">
-        <v>17</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -4596,31 +4596,31 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -4639,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4654,19 +4654,19 @@
         <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -4694,19 +4694,19 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4725,37 +4725,37 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
         <v>10</v>
       </c>
-      <c r="E100" t="n">
-        <v>45</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4</v>
-      </c>
-      <c r="G100" t="n">
-        <v>21</v>
-      </c>
-      <c r="H100" t="n">
-        <v>16</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>36</v>
-      </c>
-      <c r="K100" t="n">
-        <v>38</v>
-      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4774,25 +4774,25 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4811,34 +4811,34 @@
         <v>9</v>
       </c>
       <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
         <v>6</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5</v>
-      </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -4900,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -4940,13 +4940,13 @@
         <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4986,13 +4986,13 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5026,31 +5026,31 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -5069,37 +5069,37 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -5112,34 +5112,34 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J109" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K109" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -5155,25 +5155,25 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5198,37 +5198,37 @@
         <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5241,19 +5241,19 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -5327,31 +5327,31 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -5373,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -5413,37 +5413,37 @@
         <v>15</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="n">
         <v>5</v>
       </c>
-      <c r="K116" t="n">
-        <v>6</v>
-      </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5456,37 +5456,37 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5499,34 +5499,34 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5585,34 +5585,34 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -5628,37 +5628,37 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -5671,34 +5671,34 @@
         <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5</v>
+      </c>
+      <c r="J122" t="n">
         <v>8</v>
       </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3</v>
-      </c>
-      <c r="G122" t="n">
+      <c r="K122" t="n">
         <v>8</v>
       </c>
-      <c r="H122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15</v>
-      </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
@@ -5714,34 +5714,34 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>6</v>
       </c>
       <c r="K123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -5757,31 +5757,31 @@
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -5800,31 +5800,31 @@
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -5843,37 +5843,37 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5889,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5904,16 +5904,16 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -5932,31 +5932,31 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -5975,31 +5975,31 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -6015,34 +6015,34 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1288168596745483</v>
+        <v>-0.4446980643628634</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.09774621882008723</v>
+        <v>-0.09948952906838822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6097,21 +6097,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5111571709533484</v>
+        <v>1.485596068517739</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08143631519500012</v>
+        <v>-1.409608731649949</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9179654033857274</v>
+        <v>-0.1553478603116971</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2775563384434007</v>
+        <v>-0.1807835313185595</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6119,87 +6119,87 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5111571709533484</v>
+        <v>9.543775412742891</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08143631519500012</v>
+        <v>-1.543888534225494</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.310779415790472</v>
+        <v>3.181167047856602</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5746829894140536</v>
+        <v>0.8957185828879622</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.479676361432987</v>
+        <v>0.5502115650766527</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6422722000619696</v>
+        <v>-0.126276562758992</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.064763712329076</v>
+        <v>1.814925461740827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.72790285023797</v>
+        <v>-0.371034803957117</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.231700217947005</v>
+        <v>3.480489598968951</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5731219406616791</v>
+        <v>-1.668562244569853</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4895576542159245</v>
+        <v>0.7307092741889949</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2647182403737337</v>
+        <v>-0.5313337671776996</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2879137974505797</v>
+        <v>1.912606087357046</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02425345878437561</v>
+        <v>-0.4305788092517869</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.70701838538752</v>
+        <v>4.025720093750444</v>
       </c>
       <c r="B12" t="n">
-        <v>6.604165512063793</v>
+        <v>-0.4587579224373176</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.05992493535346397</v>
+        <v>-0.3791984654551642</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7966492330177239</v>
+        <v>-0.6693714455614621</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.310779415790472</v>
+        <v>0.4723590546960688</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.436693514144893</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4372940832065212</v>
+        <v>0.4201760769426233</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1367716458014132</v>
+        <v>-0.4281006127316154</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6240,43 +6240,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.813479742299585</v>
+        <v>2.563005645266532</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1370581228532501</v>
+        <v>-0.09989786150090739</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3357488851667241</v>
+        <v>2.667952989355674</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1438233048920777</v>
+        <v>1.247097937739002</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.062129579045029</v>
+        <v>3.148113088761856</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2188124332804017</v>
+        <v>3.472141939199655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.782064792467016</v>
+        <v>2.156557067282412</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.527412885092933</v>
+        <v>2.692912397112537</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -6284,21 +6284,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.06042028463373889</v>
+        <v>0.8252900116065522</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3622579896690682</v>
+        <v>0.7751686640337432</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.310779415790472</v>
+        <v>0.1294894402995043</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5746829894140536</v>
+        <v>0.2172886575197673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.310779415790472</v>
+        <v>-1.439430185966754</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5746829894140536</v>
+        <v>0.3407547802185764</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6317,32 +6317,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.882503621895504</v>
+        <v>-0.3239867730207853</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.264355105045078</v>
+        <v>2.032237827413683</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.2409078174704807</v>
+        <v>0.9482508456352221</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.09115231575991818</v>
+        <v>0.2724494883297973</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.803557317606836</v>
+        <v>-2.380475461913859</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3439342083896135</v>
+        <v>-0.4530649241368773</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.3396926947184977</v>
+        <v>0.09989879954337874</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6264349887576477</v>
+        <v>0.9800159025822573</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.231700217947005</v>
+        <v>-2.896884830830722</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5731219406616791</v>
+        <v>-0.3649884491376977</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6372,21 +6372,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.05948174254464273</v>
+        <v>6.589298774887435</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4326286522000309</v>
+        <v>1.532206645954025</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.152621020103537</v>
+        <v>-0.5496940363611382</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5715608919093046</v>
+        <v>0.6247600826633072</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.310779415790472</v>
+        <v>0.003259160478266885</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5746829894140536</v>
+        <v>0.9012583085362196</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.192570364490798</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5746829894140536</v>
+        <v>1.051714503783026</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6416,21 +6416,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.4641511909732496</v>
+        <v>4.088744969632232</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1483351721705427</v>
+        <v>-1.178814411288322</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4971629509257144</v>
+        <v>-0.1161380582776458</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.143302317862748</v>
+        <v>-0.3219918268618937</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0001367225651729467</v>
+        <v>-1.185407738760896</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.8550434301300516</v>
+        <v>0.3025281917699273</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -6449,32 +6449,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.2599253573953115</v>
+        <v>1.401879361339829</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1479854641198714</v>
+        <v>-0.07107472782812478</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.310779415790472</v>
+        <v>2.201562505100134</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5746829894140536</v>
+        <v>-2.537529147759676</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.255837629727095</v>
+        <v>5.79820624061592</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.09876589441251715</v>
+        <v>2.589539983900588</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.008456844444236</v>
+        <v>-2.662619766967385</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6303047970723036</v>
+        <v>0.186373652062338</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -6493,32 +6493,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.166615240131171</v>
+        <v>2.936382590233167</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6334268945770526</v>
+        <v>0.8371842449003223</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.593647453345455</v>
+        <v>0.5783206621773819</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5556653767346509</v>
+        <v>-0.1490152767793338</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.3199870153139484</v>
+        <v>-2.81676751450172</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.08959126700754372</v>
+        <v>0.08636005007637802</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -6526,21 +6526,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.2625073342079048</v>
+        <v>1.549360071916777</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.437306871328652</v>
+        <v>-0.4663647829011681</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.062129579045029</v>
+        <v>-2.524856937284655</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2188124332804017</v>
+        <v>0.09961076843455172</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.062129579045029</v>
+        <v>0.2489612406456483</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2188124332804017</v>
+        <v>1.281230410837093</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.1644105964396064</v>
+        <v>-0.1078461322750086</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3820347717210731</v>
+        <v>0.51520801450089</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.1874779047125033</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5746829894140536</v>
+        <v>2.202472587991318</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.6354181418133</v>
+        <v>4.430538372385379</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.51897290562948</v>
+        <v>0.6215561207840331</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -6592,32 +6592,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.9039711833580933</v>
+        <v>1.544569151427252</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2156903357756527</v>
+        <v>-2.635609846533633</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.727948865057402</v>
+        <v>-0.04476077934914992</v>
       </c>
       <c r="B49" t="n">
-        <v>-2.302925829702527</v>
+        <v>1.803426782393766</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.2945805520712735</v>
+        <v>-1.644940739903431</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.50264467955182</v>
+        <v>-0.06985644335770963</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -6625,32 +6625,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.2625073342079048</v>
+        <v>1.157989169642245</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.437306871328652</v>
+        <v>-0.2441128902621884</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.062129579045029</v>
+        <v>4.055427696709892</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2188124332804017</v>
+        <v>-0.7011031111661268</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5266412095032743</v>
+        <v>-1.492835265163861</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.8126094285921398</v>
+        <v>0.150484357873383</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.087536042287704</v>
+        <v>-2.521651890169597</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6318658458246781</v>
+        <v>0.8338111776475118</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.211967852852901</v>
+        <v>-0.2163985420200366</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.4466731638428988</v>
+        <v>1.540591495354757</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.3964842363448227</v>
+        <v>-1.489319636342539</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2012911889536113</v>
+        <v>-0.8485966220382282</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -6691,43 +6691,43 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.125574892818832</v>
+        <v>2.825881956798345</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.04720556017819631</v>
+        <v>0.7994806636522566</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.499126418627849</v>
+        <v>1.675304272080312</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7357146254340353</v>
+        <v>0.5633517537048183</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.4581725758322743</v>
+        <v>2.348221491083839</v>
       </c>
       <c r="B59" t="n">
-        <v>1.102915452722046</v>
+        <v>2.060683865985384</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.3669929952940473</v>
+        <v>-0.4988441205651079</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.02269241003200114</v>
+        <v>2.209001201688562</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.9344209085963558</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.05676134060118492</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.6301598300408722</v>
+        <v>-1.578819161838614</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5836463520405624</v>
+        <v>1.196535159119387</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.596512807823266</v>
+        <v>3.134245639646475</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.478444733766112</v>
+        <v>0.6954830490451398</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -6768,21 +6768,21 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.112334671958709</v>
+        <v>0.7057770649093487</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.698961454324806</v>
+        <v>2.232511626408087</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.08324477106382037</v>
+        <v>-1.96114247852163</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3401168300839886</v>
+        <v>2.952486413097524</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.310779415790472</v>
+        <v>0.3796062602479606</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5746829894140536</v>
+        <v>-1.266735684896261</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -6801,21 +6801,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.1694339163368031</v>
+        <v>0.7513121942951176</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5007339227487744</v>
+        <v>-1.447076365858286</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.4264056877312038</v>
+        <v>-1.734208112698592</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.7931823545908061</v>
+        <v>-0.6527746247597944</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.310779415790472</v>
+        <v>1.090818619068146</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5746829894140536</v>
+        <v>4.481382377546915</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -6834,21 +6834,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2639971527301966</v>
+        <v>1.223049294681295</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3948728697907402</v>
+        <v>0.8002287448888201</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.7013887845036525</v>
+        <v>-1.511908458688802</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1436520259134193</v>
+        <v>0.5782084812200313</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1659004149618982</v>
+        <v>-1.47443454502172</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4501449693983189</v>
+        <v>1.847466023853367</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -6867,21 +6867,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.4714786563801898</v>
+        <v>0.5954780989050255</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3919220512646497</v>
+        <v>-1.497044538518606</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.310779415790472</v>
+        <v>0.6454941263660163</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5746829894140536</v>
+        <v>1.201118309899019</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0108086698290415</v>
+        <v>0.8788309055701439</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3650403882849134</v>
+        <v>2.217317654423523</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.310779415790472</v>
+        <v>-1.889736665702117</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.1994451152632647</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.231700217947005</v>
+        <v>-1.318844936515513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5731219406616791</v>
+        <v>0.5284993493428628</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9809675243507096</v>
+        <v>-1.744738974633943</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4699700461588883</v>
+        <v>-0.2310011954653132</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.7344005444561174</v>
+        <v>-3.121999838227897</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1386191716056246</v>
+        <v>-0.7847808681497249</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.983050381201561</v>
+        <v>-1.598375318932365</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2172513845280272</v>
+        <v>-1.533141859245664</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.771219250913833</v>
+        <v>-2.839376722361499</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6256216508151802</v>
+        <v>-0.3437324411977764</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -6966,21 +6966,21 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.062129579045029</v>
+        <v>2.296582524732589</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2188124332804017</v>
+        <v>-2.500308338288752</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.9234213564245997</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5746829894140536</v>
+        <v>-1.026518579581216</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.6667335898276905</v>
+        <v>-2.81676751450172</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2110071895185293</v>
+        <v>0.08636005007637802</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.152621020103537</v>
+        <v>-1.293142995206188</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5715608919093046</v>
+        <v>-0.6620009410195615</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.2409078174704807</v>
+        <v>0.4097307431394502</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.09115231575991818</v>
+        <v>0.7373464064777171</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.834358234925338</v>
+        <v>-2.40566903030326</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8290856840673833</v>
+        <v>0.8684433019943151</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8657824873072264</v>
+        <v>-1.320922356025314</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.521228443354694</v>
+        <v>-0.9600109256397523</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.813479742299585</v>
+        <v>0.2876168650304954</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1370581228532501</v>
+        <v>0.516859619956665</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.9039711833580933</v>
+        <v>-0.1700119702112466</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2156903357756527</v>
+        <v>-0.4618254827983249</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -7065,21 +7065,21 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.705083246717509</v>
+        <v>-0.1785972712325768</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.703989381504098</v>
+        <v>0.714149803051598</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.4930157708252472</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5746829894140536</v>
+        <v>0.828033987608366</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -7087,21 +7087,21 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.6156428320394909</v>
+        <v>1.155705462737747</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3331781461016507</v>
+        <v>-2.922438051560473</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.367544271727243</v>
+        <v>-1.82203539289783</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7391166685564281</v>
+        <v>-0.3538842592105867</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.062129579045029</v>
+        <v>-1.722574855767604</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2188124332804017</v>
+        <v>0.05333877030425414</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.726723895364744</v>
+        <v>0.1181598544409634</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.254396454380737</v>
+        <v>-2.569125130296327</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4995913115371023</v>
+        <v>-1.263194784507093</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.7592480857876067</v>
+        <v>1.024493290516317</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.4180837530822468</v>
+        <v>-1.116831128805515</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1448633666151225</v>
+        <v>-0.2776473732640342</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.9039711833580933</v>
+        <v>-0.02063933769927266</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2156903357756527</v>
+        <v>0.6572705464417282</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -7164,21 +7164,21 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.052924135436083</v>
+        <v>-0.1087886422143877</v>
       </c>
       <c r="B100" t="n">
-        <v>2.458897301806197</v>
+        <v>-2.171702000559471</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.9179654033857274</v>
+        <v>-1.748566522011973</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2775563384434007</v>
+        <v>0.7863091063482581</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5765155938995278</v>
+        <v>0.01001511571706277</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.568345591149729</v>
+        <v>-1.808604440743866</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.9039711833580933</v>
+        <v>-1.737631190962547</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2156903357756527</v>
+        <v>0.02089568596782786</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.03832541861603984</v>
+        <v>-1.622719115477975</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.4504946774489902</v>
+        <v>-1.137787234988316</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.310779415790472</v>
+        <v>-2.729723020896208</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.1122045635701791</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.07282699709079651</v>
+        <v>-2.889853512100338</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3867179179781965</v>
+        <v>0.1862933748376562</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.1157611817360103</v>
+        <v>-2.729723020896208</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.08924155895687247</v>
+        <v>-0.1122045635701791</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -7252,21 +7252,21 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.062129579045029</v>
+        <v>2.283145582660147</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2188124332804017</v>
+        <v>-2.555309466441099</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.200621469325653</v>
+        <v>-0.5645231965413496</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.036248246655584</v>
+        <v>-0.8930464046479123</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.4971629509257144</v>
+        <v>-2.797500758641508</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.143302317862748</v>
+        <v>0.3416195229193559</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -7285,21 +7285,21 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.194834886885687</v>
+        <v>-1.645278437503717</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.838077050234595</v>
+        <v>0.1762218340495274</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.152621020103537</v>
+        <v>-0.5054721598906394</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5715608919093046</v>
+        <v>-0.5949634979816991</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.02245106447187</v>
+        <v>-1.600109907618196</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6921707997400516</v>
+        <v>-0.707694743714162</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.310779415790472</v>
+        <v>-0.3223292114874837</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5746829894140536</v>
+        <v>-2.473062069004984</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.813479742299585</v>
+        <v>-0.9976546033459939</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1370581228532501</v>
+        <v>-1.820515357580673</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -7340,32 +7340,32 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3100645906211994</v>
+        <v>1.182815029934114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.39140106423532</v>
+        <v>-2.540265353753828</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.6051666881581</v>
+        <v>-1.131426850009501</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.632846154276463</v>
+        <v>-0.2037404263985159</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.417173360429746</v>
+        <v>-2.5001289916891</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.4132557467685625</v>
+        <v>0.1099911179213609</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.6693155666402838</v>
+        <v>-1.628053954438267</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.07831421769025119</v>
+        <v>0.5518085061376381</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.813479742299585</v>
+        <v>-1.22513358690867</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1370581228532501</v>
+        <v>-0.1130392949917251</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -7395,21 +7395,21 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.062129579045029</v>
+        <v>0.6939625846163913</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2188124332804017</v>
+        <v>-0.2280666744266691</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.900822504883642</v>
+        <v>0.4667451287038302</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.055615567385658</v>
+        <v>-1.255091907981197</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.5876543919842228</v>
+        <v>-0.3555588488399022</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2094461407661549</v>
+        <v>-1.061963026328852</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.310779415790472</v>
+        <v>-2.835589181368493</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.02314689726201315</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.7918802255621609</v>
+        <v>-2.028103067505478</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2090964327154837</v>
+        <v>1.826711530684881</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -7450,21 +7450,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.163359570059116</v>
+        <v>1.271764787545095</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.6360280050524717</v>
+        <v>-3.187190869755883</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.378405238509088</v>
+        <v>-1.488721617467075</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3284949998445273</v>
+        <v>-1.301613981618067</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.310779415790472</v>
+        <v>-2.729723020896208</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5746829894140536</v>
+        <v>-0.1122045635701791</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.3059927952863143</v>
+        <v>-1.100232341128392</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1514572696752916</v>
+        <v>-0.9496232209742844</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.405342652183866</v>
+        <v>-0.6215314846979887</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.470289781953568</v>
+        <v>-0.3302106797862897</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
